--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV5.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohan\source\repos\jayanthkundety\RAMMS2.0\RAMS\Web\RAMMS.Web.UI\wwwroot\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VARADHA\source\repos\jayanthkundety\RAMMS2.0\RAMS\Web\RAMMS.Web.UI\wwwroot\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -783,7 +783,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -827,6 +827,138 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -857,48 +989,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -908,39 +998,18 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -950,13 +1019,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -965,76 +1034,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1075,7 +1081,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5560062A-CEC6-4E1F-AAB8-BB76EE3F64C8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5560062A-CEC6-4E1F-AAB8-BB76EE3F64C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1125,7 +1131,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{009A5697-667C-4D18-BFE3-FF9CCD889E10}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{009A5697-667C-4D18-BFE3-FF9CCD889E10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1204,7 +1210,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B292BE2E-1B46-45AD-887D-C02B025B0727}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B292BE2E-1B46-45AD-887D-C02B025B0727}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1631,45 +1637,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AB74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A27" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="AD58" sqref="AD58"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44:Q44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="0.7109375" style="2" customWidth="1"/>
-    <col min="2" max="7" width="4.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="2" customWidth="1"/>
-    <col min="9" max="17" width="6.140625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="0.7109375" style="2" customWidth="1"/>
-    <col min="19" max="21" width="4.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="0.7265625" style="2" customWidth="1"/>
+    <col min="2" max="7" width="4.7265625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6.7265625" style="2" customWidth="1"/>
+    <col min="9" max="17" width="6.1796875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="0.7265625" style="2" customWidth="1"/>
+    <col min="19" max="21" width="4.7265625" style="2" customWidth="1"/>
     <col min="22" max="22" width="13" style="2" customWidth="1"/>
-    <col min="23" max="23" width="4.7109375" style="2" customWidth="1"/>
-    <col min="24" max="16384" width="8.7109375" style="2"/>
+    <col min="23" max="23" width="4.7265625" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="15"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="23" t="s">
+    <row r="1" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="59"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
       <c r="N1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="47"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="19"/>
       <c r="S1" s="13"/>
       <c r="T1" s="13"/>
       <c r="U1" s="13"/>
@@ -1681,21 +1687,21 @@
       <c r="AA1" s="13"/>
       <c r="AB1" s="13"/>
     </row>
-    <row r="2" spans="2:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="39" t="s">
+    <row r="2" spans="2:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="62"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="71"/>
       <c r="N2" s="3"/>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
@@ -1712,28 +1718,28 @@
       <c r="AA2" s="13"/>
       <c r="AB2" s="13"/>
     </row>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="25" t="s">
+    <row r="3" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="27"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="74"/>
       <c r="N3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="48"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="21"/>
       <c r="S3" s="13"/>
       <c r="T3" s="13"/>
       <c r="U3" s="13"/>
@@ -1745,18 +1751,18 @@
       <c r="AA3" s="13"/>
       <c r="AB3" s="13"/>
     </row>
-    <row r="4" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B4" s="21"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+    <row r="4" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B4" s="65"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="12"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
       <c r="K4" s="4" t="s">
         <v>17</v>
       </c>
@@ -1767,10 +1773,10 @@
       <c r="N4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="50"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="52"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="24"/>
       <c r="S4" s="13"/>
       <c r="T4" s="13"/>
       <c r="U4" s="13"/>
@@ -1782,7 +1788,7 @@
       <c r="AA4" s="13"/>
       <c r="AB4" s="13"/>
     </row>
-    <row r="5" spans="2:28" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:28" ht="4.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S5" s="13"/>
       <c r="T5" s="13"/>
       <c r="U5" s="13"/>
@@ -1809,29 +1815,29 @@
       <c r="AA6" s="13"/>
       <c r="AB6" s="13"/>
     </row>
-    <row r="7" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="43" t="s">
+    <row r="7" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="45"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="81"/>
       <c r="S7" s="13"/>
       <c r="T7" s="13"/>
       <c r="U7" s="13"/>
-      <c r="V7" s="83"/>
+      <c r="V7" s="15"/>
       <c r="W7" s="13"/>
       <c r="X7" s="13"/>
       <c r="Y7" s="13"/>
@@ -1839,8 +1845,8 @@
       <c r="AA7" s="13"/>
       <c r="AB7" s="13"/>
     </row>
-    <row r="8" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B8" s="59" t="s">
+    <row r="8" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B8" s="82" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="84" t="s">
@@ -1865,7 +1871,7 @@
       <c r="S8" s="13"/>
       <c r="T8" s="13"/>
       <c r="U8" s="13"/>
-      <c r="V8" s="83"/>
+      <c r="V8" s="15"/>
       <c r="W8" s="13"/>
       <c r="X8" s="13"/>
       <c r="Y8" s="13"/>
@@ -1873,8 +1879,8 @@
       <c r="AA8" s="13"/>
       <c r="AB8" s="13"/>
     </row>
-    <row r="9" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B9" s="60"/>
+    <row r="9" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B9" s="83"/>
       <c r="C9" s="84" t="s">
         <v>13</v>
       </c>
@@ -1897,7 +1903,7 @@
       <c r="S9" s="13"/>
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
-      <c r="V9" s="83"/>
+      <c r="V9" s="15"/>
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
       <c r="Y9" s="13"/>
@@ -1905,23 +1911,25 @@
       <c r="AA9" s="13"/>
       <c r="AB9" s="13"/>
     </row>
-    <row r="10" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="55"/>
+    <row r="10" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="9">
+        <v>1</v>
+      </c>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="78"/>
       <c r="S10" s="13"/>
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
@@ -1933,23 +1941,25 @@
       <c r="AA10" s="13"/>
       <c r="AB10" s="13"/>
     </row>
-    <row r="11" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="58"/>
+    <row r="11" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="9">
+        <v>2</v>
+      </c>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="46"/>
       <c r="S11" s="13"/>
       <c r="T11" s="13"/>
       <c r="U11" s="13"/>
@@ -1961,23 +1971,25 @@
       <c r="AA11" s="13"/>
       <c r="AB11" s="13"/>
     </row>
-    <row r="12" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="58"/>
+    <row r="12" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="9">
+        <v>3</v>
+      </c>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="46"/>
       <c r="S12" s="13"/>
       <c r="T12" s="13"/>
       <c r="U12" s="13"/>
@@ -1989,23 +2001,25 @@
       <c r="AA12" s="13"/>
       <c r="AB12" s="13"/>
     </row>
-    <row r="13" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="58"/>
+    <row r="13" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="9">
+        <v>4</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="46"/>
       <c r="S13" s="13"/>
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
@@ -2017,23 +2031,25 @@
       <c r="AA13" s="13"/>
       <c r="AB13" s="13"/>
     </row>
-    <row r="14" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="58"/>
+    <row r="14" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="9">
+        <v>5</v>
+      </c>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="46"/>
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
@@ -2045,23 +2061,25 @@
       <c r="AA14" s="13"/>
       <c r="AB14" s="13"/>
     </row>
-    <row r="15" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="58"/>
+    <row r="15" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="9">
+        <v>6</v>
+      </c>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="46"/>
       <c r="S15" s="13"/>
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
@@ -2073,23 +2091,25 @@
       <c r="AA15" s="13"/>
       <c r="AB15" s="13"/>
     </row>
-    <row r="16" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="58"/>
+    <row r="16" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="9">
+        <v>7</v>
+      </c>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="46"/>
       <c r="S16" s="13"/>
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
@@ -2101,23 +2121,25 @@
       <c r="AA16" s="13"/>
       <c r="AB16" s="13"/>
     </row>
-    <row r="17" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="58"/>
+    <row r="17" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="9">
+        <v>8</v>
+      </c>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="46"/>
       <c r="S17" s="13"/>
       <c r="T17" s="13"/>
       <c r="U17" s="13"/>
@@ -2129,23 +2151,25 @@
       <c r="AA17" s="13"/>
       <c r="AB17" s="13"/>
     </row>
-    <row r="18" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="58"/>
+    <row r="18" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="9">
+        <v>9</v>
+      </c>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="46"/>
       <c r="S18" s="13"/>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
@@ -2157,23 +2181,25 @@
       <c r="AA18" s="13"/>
       <c r="AB18" s="13"/>
     </row>
-    <row r="19" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="58"/>
+    <row r="19" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="9">
+        <v>10</v>
+      </c>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="46"/>
       <c r="S19" s="13"/>
       <c r="T19" s="13"/>
       <c r="U19" s="13"/>
@@ -2185,23 +2211,25 @@
       <c r="AA19" s="13"/>
       <c r="AB19" s="13"/>
     </row>
-    <row r="20" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="58"/>
+    <row r="20" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="9">
+        <v>11</v>
+      </c>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="46"/>
       <c r="S20" s="13"/>
       <c r="T20" s="13"/>
       <c r="U20" s="13"/>
@@ -2213,23 +2241,25 @@
       <c r="AA20" s="13"/>
       <c r="AB20" s="13"/>
     </row>
-    <row r="21" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="58"/>
+    <row r="21" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="9">
+        <v>12</v>
+      </c>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="46"/>
       <c r="S21" s="13"/>
       <c r="T21" s="13"/>
       <c r="U21" s="13"/>
@@ -2241,23 +2271,25 @@
       <c r="AA21" s="13"/>
       <c r="AB21" s="13"/>
     </row>
-    <row r="22" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="58"/>
+    <row r="22" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="9">
+        <v>13</v>
+      </c>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="46"/>
       <c r="S22" s="13"/>
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
@@ -2269,23 +2301,25 @@
       <c r="AA22" s="13"/>
       <c r="AB22" s="13"/>
     </row>
-    <row r="23" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="9"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="58"/>
+    <row r="23" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="9">
+        <v>14</v>
+      </c>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="46"/>
       <c r="S23" s="13"/>
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
@@ -2297,23 +2331,25 @@
       <c r="AA23" s="13"/>
       <c r="AB23" s="13"/>
     </row>
-    <row r="24" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="9"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="58"/>
+    <row r="24" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="9">
+        <v>15</v>
+      </c>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="46"/>
       <c r="S24" s="13"/>
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
@@ -2325,23 +2361,25 @@
       <c r="AA24" s="13"/>
       <c r="AB24" s="13"/>
     </row>
-    <row r="25" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="9"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="58"/>
+    <row r="25" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="9">
+        <v>16</v>
+      </c>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="46"/>
       <c r="S25" s="13"/>
       <c r="T25" s="13"/>
       <c r="U25" s="13"/>
@@ -2353,23 +2391,25 @@
       <c r="AA25" s="13"/>
       <c r="AB25" s="13"/>
     </row>
-    <row r="26" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="9"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="58"/>
+    <row r="26" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="9">
+        <v>17</v>
+      </c>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="46"/>
       <c r="S26" s="13"/>
       <c r="T26" s="13"/>
       <c r="U26" s="13"/>
@@ -2381,397 +2421,515 @@
       <c r="AA26" s="13"/>
       <c r="AB26" s="13"/>
     </row>
-    <row r="27" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="9"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="58"/>
-    </row>
-    <row r="28" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="9"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="58"/>
-    </row>
-    <row r="29" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="9"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="58"/>
-    </row>
-    <row r="30" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="9"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="57"/>
-      <c r="Q30" s="58"/>
-    </row>
-    <row r="31" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="9"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="58"/>
-    </row>
-    <row r="32" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="9"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="57"/>
-      <c r="Q32" s="58"/>
-    </row>
-    <row r="33" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="9"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
-      <c r="N33" s="57"/>
-      <c r="O33" s="57"/>
-      <c r="P33" s="57"/>
-      <c r="Q33" s="58"/>
-    </row>
-    <row r="34" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="9"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="57"/>
-      <c r="P34" s="57"/>
-      <c r="Q34" s="58"/>
-    </row>
-    <row r="35" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="9"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="57"/>
-      <c r="O35" s="57"/>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="58"/>
-    </row>
-    <row r="36" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="9"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
-      <c r="O36" s="57"/>
-      <c r="P36" s="57"/>
-      <c r="Q36" s="58"/>
-    </row>
-    <row r="37" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="61" t="s">
+    <row r="27" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="9">
+        <v>18</v>
+      </c>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="46"/>
+    </row>
+    <row r="28" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="9">
+        <v>19</v>
+      </c>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="46"/>
+    </row>
+    <row r="29" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="9">
+        <v>20</v>
+      </c>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="46"/>
+    </row>
+    <row r="30" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="9">
+        <v>21</v>
+      </c>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="46"/>
+    </row>
+    <row r="31" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="9">
+        <v>22</v>
+      </c>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="46"/>
+    </row>
+    <row r="32" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="9">
         <v>23</v>
       </c>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="62"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="62"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="62"/>
-      <c r="Q37" s="63"/>
-    </row>
-    <row r="38" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="64"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="65"/>
-      <c r="L38" s="65"/>
-      <c r="M38" s="65"/>
-      <c r="N38" s="65"/>
-      <c r="O38" s="65"/>
-      <c r="P38" s="65"/>
-      <c r="Q38" s="66"/>
-    </row>
-    <row r="39" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="64"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="65"/>
-      <c r="K39" s="65"/>
-      <c r="L39" s="65"/>
-      <c r="M39" s="65"/>
-      <c r="N39" s="65"/>
-      <c r="O39" s="65"/>
-      <c r="P39" s="65"/>
-      <c r="Q39" s="66"/>
-    </row>
-    <row r="40" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="64"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="65"/>
-      <c r="K40" s="65"/>
-      <c r="L40" s="65"/>
-      <c r="M40" s="65"/>
-      <c r="N40" s="65"/>
-      <c r="O40" s="65"/>
-      <c r="P40" s="65"/>
-      <c r="Q40" s="66"/>
-    </row>
-    <row r="41" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="67"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="68"/>
-      <c r="L41" s="68"/>
-      <c r="M41" s="68"/>
-      <c r="N41" s="68"/>
-      <c r="O41" s="68"/>
-      <c r="P41" s="68"/>
-      <c r="Q41" s="69"/>
-    </row>
-    <row r="42" spans="2:17" ht="5.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="28" t="s">
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="46"/>
+    </row>
+    <row r="33" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="9">
+        <v>24</v>
+      </c>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="46"/>
+    </row>
+    <row r="34" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="9">
+        <v>25</v>
+      </c>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="46"/>
+    </row>
+    <row r="35" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="9">
+        <v>26</v>
+      </c>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="45"/>
+      <c r="P35" s="45"/>
+      <c r="Q35" s="46"/>
+    </row>
+    <row r="36" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="9">
+        <v>27</v>
+      </c>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="45"/>
+      <c r="Q36" s="46"/>
+    </row>
+    <row r="37" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="49"/>
+    </row>
+    <row r="38" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="50"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="51"/>
+      <c r="Q38" s="52"/>
+    </row>
+    <row r="39" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="50"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="51"/>
+      <c r="Q39" s="52"/>
+    </row>
+    <row r="40" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="50"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="51"/>
+      <c r="P40" s="51"/>
+      <c r="Q40" s="52"/>
+    </row>
+    <row r="41" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="53"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="54"/>
+      <c r="Q41" s="55"/>
+    </row>
+    <row r="42" spans="2:17" ht="5.65" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29" t="s">
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29" t="s">
+      <c r="K43" s="57"/>
+      <c r="L43" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29" t="s">
+      <c r="M43" s="57"/>
+      <c r="N43" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29" t="s">
+      <c r="O43" s="57"/>
+      <c r="P43" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="Q43" s="30"/>
-    </row>
-    <row r="44" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="31" t="s">
+      <c r="Q43" s="58"/>
+    </row>
+    <row r="44" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="38" t="s">
+      <c r="C44" s="41"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="I44" s="38"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="34"/>
-      <c r="M44" s="34"/>
-      <c r="N44" s="34"/>
-      <c r="O44" s="34"/>
-      <c r="P44" s="35" t="s">
+      <c r="I44" s="43"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="32"/>
+      <c r="P44" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="Q44" s="36"/>
-    </row>
-    <row r="45" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="77"/>
-      <c r="C45" s="78"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="79"/>
-      <c r="F45" s="79"/>
-      <c r="G45" s="79"/>
-      <c r="H45" s="80"/>
-      <c r="I45" s="80"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="33"/>
-      <c r="N45" s="33"/>
-      <c r="O45" s="33"/>
-      <c r="P45" s="81"/>
-      <c r="Q45" s="82"/>
-    </row>
-    <row r="46" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="70"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="74"/>
-      <c r="H46" s="75"/>
-      <c r="I46" s="76"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="34"/>
-      <c r="N46" s="34"/>
-      <c r="O46" s="34"/>
-      <c r="P46" s="35"/>
-      <c r="Q46" s="36"/>
-    </row>
-    <row r="47" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="Q44" s="86"/>
+    </row>
+    <row r="45" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="33"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="37"/>
+      <c r="N45" s="37"/>
+      <c r="O45" s="37"/>
+      <c r="P45" s="38"/>
+      <c r="Q45" s="39"/>
+    </row>
+    <row r="46" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="25"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="32"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="17"/>
+    </row>
+    <row r="47" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="122">
+    <mergeCell ref="B1:D4"/>
+    <mergeCell ref="E1:M1"/>
+    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="E3:M3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:Q10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:Q11"/>
+    <mergeCell ref="B7:Q7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:Q9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:Q14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:Q15"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:Q12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:Q13"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:Q18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:Q19"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:Q16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:Q17"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:Q22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:Q23"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:Q20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:Q21"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:Q26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:Q27"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:Q24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:Q25"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:Q30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:Q31"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:Q28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:Q29"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:Q34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:Q35"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:Q32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:Q33"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:Q36"/>
+    <mergeCell ref="B37:Q41"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P43:Q43"/>
     <mergeCell ref="P46:Q46"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="O3:R3"/>
@@ -2796,104 +2954,6 @@
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:Q36"/>
-    <mergeCell ref="B37:Q41"/>
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:Q34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I35:Q35"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:Q32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:Q33"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:Q30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:Q31"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:Q28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:Q29"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:Q26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:Q27"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:Q24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:Q25"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:Q22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:Q23"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:Q20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:Q21"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:Q18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:Q19"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:Q16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:Q17"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:Q14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:Q15"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:Q12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:Q13"/>
-    <mergeCell ref="B1:D4"/>
-    <mergeCell ref="E1:M1"/>
-    <mergeCell ref="E2:M2"/>
-    <mergeCell ref="E3:M3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:Q10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:Q11"/>
-    <mergeCell ref="B7:Q7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:Q9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="98" orientation="portrait" r:id="rId1"/>
@@ -2905,6 +2965,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010049A98165F7642E47B17A8718C6309C3C" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9df6a80b683f270dae4d8a9378e1d1ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0a527c08-909e-4034-a4b4-e3dc69cf1394" xmlns:ns3="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0c18106f391fc927c4fcfd7d01849ca" ns2:_="" ns3:_="">
     <xsd:import namespace="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
@@ -3101,22 +3176,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795AD8BC-805A-47E5-B745-6CE87A160978}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
+    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3342C9-0999-4E47-99DE-61F63C6EECE1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845AA705-DFFE-46E6-825A-7AEA3224B1E5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3133,29 +3218,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3342C9-0999-4E47-99DE-61F63C6EECE1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795AD8BC-805A-47E5-B745-6CE87A160978}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
-    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV5.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohan\source\repos\jayanthkundety\RAMMS2.0\RAMS\Web\RAMMS.Web.UI\wwwroot\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VARADHA\source\repos\jayanthkundety\RAMMS2.0\RAMS\Web\RAMMS.Web.UI\wwwroot\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -783,7 +783,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -827,6 +827,129 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -857,48 +980,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -908,134 +989,56 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1075,7 +1078,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5560062A-CEC6-4E1F-AAB8-BB76EE3F64C8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5560062A-CEC6-4E1F-AAB8-BB76EE3F64C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1125,7 +1128,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{009A5697-667C-4D18-BFE3-FF9CCD889E10}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{009A5697-667C-4D18-BFE3-FF9CCD889E10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1204,7 +1207,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B292BE2E-1B46-45AD-887D-C02B025B0727}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B292BE2E-1B46-45AD-887D-C02B025B0727}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1631,45 +1634,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AB74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A27" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="AD58" sqref="AD58"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4:R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="0.7109375" style="2" customWidth="1"/>
-    <col min="2" max="7" width="4.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="2" customWidth="1"/>
-    <col min="9" max="17" width="6.140625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="0.7109375" style="2" customWidth="1"/>
-    <col min="19" max="21" width="4.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="0.7265625" style="2" customWidth="1"/>
+    <col min="2" max="7" width="4.7265625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6.7265625" style="2" customWidth="1"/>
+    <col min="9" max="17" width="6.1796875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="0.7265625" style="2" customWidth="1"/>
+    <col min="19" max="21" width="4.7265625" style="2" customWidth="1"/>
     <col min="22" max="22" width="13" style="2" customWidth="1"/>
-    <col min="23" max="23" width="4.7109375" style="2" customWidth="1"/>
-    <col min="24" max="16384" width="8.7109375" style="2"/>
+    <col min="23" max="23" width="4.7265625" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="15"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="23" t="s">
+    <row r="1" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="56"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
       <c r="N1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="47"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="19"/>
       <c r="S1" s="13"/>
       <c r="T1" s="13"/>
       <c r="U1" s="13"/>
@@ -1681,21 +1684,21 @@
       <c r="AA1" s="13"/>
       <c r="AB1" s="13"/>
     </row>
-    <row r="2" spans="2:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="39" t="s">
+    <row r="2" spans="2:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="59"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="68"/>
       <c r="N2" s="3"/>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
@@ -1712,28 +1715,28 @@
       <c r="AA2" s="13"/>
       <c r="AB2" s="13"/>
     </row>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="25" t="s">
+    <row r="3" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="27"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="71"/>
       <c r="N3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="48"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="21"/>
       <c r="S3" s="13"/>
       <c r="T3" s="13"/>
       <c r="U3" s="13"/>
@@ -1745,18 +1748,18 @@
       <c r="AA3" s="13"/>
       <c r="AB3" s="13"/>
     </row>
-    <row r="4" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B4" s="21"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+    <row r="4" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="12"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
       <c r="K4" s="4" t="s">
         <v>17</v>
       </c>
@@ -1767,10 +1770,10 @@
       <c r="N4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="50"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="52"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="85"/>
       <c r="S4" s="13"/>
       <c r="T4" s="13"/>
       <c r="U4" s="13"/>
@@ -1782,7 +1785,7 @@
       <c r="AA4" s="13"/>
       <c r="AB4" s="13"/>
     </row>
-    <row r="5" spans="2:28" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:28" ht="4.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S5" s="13"/>
       <c r="T5" s="13"/>
       <c r="U5" s="13"/>
@@ -1809,29 +1812,29 @@
       <c r="AA6" s="13"/>
       <c r="AB6" s="13"/>
     </row>
-    <row r="7" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="43" t="s">
+    <row r="7" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="45"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="78"/>
       <c r="S7" s="13"/>
       <c r="T7" s="13"/>
       <c r="U7" s="13"/>
-      <c r="V7" s="83"/>
+      <c r="V7" s="15"/>
       <c r="W7" s="13"/>
       <c r="X7" s="13"/>
       <c r="Y7" s="13"/>
@@ -1839,33 +1842,33 @@
       <c r="AA7" s="13"/>
       <c r="AB7" s="13"/>
     </row>
-    <row r="8" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B8" s="59" t="s">
+    <row r="8" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B8" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84" t="s">
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="84"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="81"/>
       <c r="S8" s="13"/>
       <c r="T8" s="13"/>
       <c r="U8" s="13"/>
-      <c r="V8" s="83"/>
+      <c r="V8" s="15"/>
       <c r="W8" s="13"/>
       <c r="X8" s="13"/>
       <c r="Y8" s="13"/>
@@ -1873,31 +1876,31 @@
       <c r="AA8" s="13"/>
       <c r="AB8" s="13"/>
     </row>
-    <row r="9" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B9" s="60"/>
-      <c r="C9" s="84" t="s">
+    <row r="9" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B9" s="80"/>
+      <c r="C9" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84" t="s">
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="84"/>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="84"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="81"/>
+      <c r="P9" s="81"/>
+      <c r="Q9" s="81"/>
       <c r="S9" s="13"/>
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
-      <c r="V9" s="83"/>
+      <c r="V9" s="15"/>
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
       <c r="Y9" s="13"/>
@@ -1905,23 +1908,23 @@
       <c r="AA9" s="13"/>
       <c r="AB9" s="13"/>
     </row>
-    <row r="10" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="9"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="55"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="75"/>
       <c r="S10" s="13"/>
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
@@ -1933,23 +1936,23 @@
       <c r="AA10" s="13"/>
       <c r="AB10" s="13"/>
     </row>
-    <row r="11" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="9"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="58"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="43"/>
       <c r="S11" s="13"/>
       <c r="T11" s="13"/>
       <c r="U11" s="13"/>
@@ -1961,23 +1964,23 @@
       <c r="AA11" s="13"/>
       <c r="AB11" s="13"/>
     </row>
-    <row r="12" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="9"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="58"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="43"/>
       <c r="S12" s="13"/>
       <c r="T12" s="13"/>
       <c r="U12" s="13"/>
@@ -1989,23 +1992,23 @@
       <c r="AA12" s="13"/>
       <c r="AB12" s="13"/>
     </row>
-    <row r="13" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="9"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="58"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="43"/>
       <c r="S13" s="13"/>
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
@@ -2017,23 +2020,23 @@
       <c r="AA13" s="13"/>
       <c r="AB13" s="13"/>
     </row>
-    <row r="14" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="9"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="58"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="43"/>
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
@@ -2045,23 +2048,23 @@
       <c r="AA14" s="13"/>
       <c r="AB14" s="13"/>
     </row>
-    <row r="15" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="9"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="58"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="43"/>
       <c r="S15" s="13"/>
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
@@ -2073,23 +2076,23 @@
       <c r="AA15" s="13"/>
       <c r="AB15" s="13"/>
     </row>
-    <row r="16" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="9"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="58"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="43"/>
       <c r="S16" s="13"/>
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
@@ -2101,23 +2104,23 @@
       <c r="AA16" s="13"/>
       <c r="AB16" s="13"/>
     </row>
-    <row r="17" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="9"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="58"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="43"/>
       <c r="S17" s="13"/>
       <c r="T17" s="13"/>
       <c r="U17" s="13"/>
@@ -2129,23 +2132,23 @@
       <c r="AA17" s="13"/>
       <c r="AB17" s="13"/>
     </row>
-    <row r="18" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="9"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="58"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="43"/>
       <c r="S18" s="13"/>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
@@ -2157,23 +2160,23 @@
       <c r="AA18" s="13"/>
       <c r="AB18" s="13"/>
     </row>
-    <row r="19" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="9"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="58"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="43"/>
       <c r="S19" s="13"/>
       <c r="T19" s="13"/>
       <c r="U19" s="13"/>
@@ -2185,23 +2188,23 @@
       <c r="AA19" s="13"/>
       <c r="AB19" s="13"/>
     </row>
-    <row r="20" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="9"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="58"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="43"/>
       <c r="S20" s="13"/>
       <c r="T20" s="13"/>
       <c r="U20" s="13"/>
@@ -2213,23 +2216,23 @@
       <c r="AA20" s="13"/>
       <c r="AB20" s="13"/>
     </row>
-    <row r="21" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="9"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="58"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="43"/>
       <c r="S21" s="13"/>
       <c r="T21" s="13"/>
       <c r="U21" s="13"/>
@@ -2241,23 +2244,23 @@
       <c r="AA21" s="13"/>
       <c r="AB21" s="13"/>
     </row>
-    <row r="22" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="9"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="58"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="43"/>
       <c r="S22" s="13"/>
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
@@ -2269,23 +2272,23 @@
       <c r="AA22" s="13"/>
       <c r="AB22" s="13"/>
     </row>
-    <row r="23" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="9"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="58"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="43"/>
       <c r="S23" s="13"/>
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
@@ -2297,23 +2300,23 @@
       <c r="AA23" s="13"/>
       <c r="AB23" s="13"/>
     </row>
-    <row r="24" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="9"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="58"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="43"/>
       <c r="S24" s="13"/>
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
@@ -2325,23 +2328,23 @@
       <c r="AA24" s="13"/>
       <c r="AB24" s="13"/>
     </row>
-    <row r="25" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="9"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="58"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="43"/>
       <c r="S25" s="13"/>
       <c r="T25" s="13"/>
       <c r="U25" s="13"/>
@@ -2353,23 +2356,23 @@
       <c r="AA25" s="13"/>
       <c r="AB25" s="13"/>
     </row>
-    <row r="26" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="9"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="58"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="43"/>
       <c r="S26" s="13"/>
       <c r="T26" s="13"/>
       <c r="U26" s="13"/>
@@ -2381,397 +2384,495 @@
       <c r="AA26" s="13"/>
       <c r="AB26" s="13"/>
     </row>
-    <row r="27" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="9"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="58"/>
-    </row>
-    <row r="28" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="43"/>
+    </row>
+    <row r="28" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="9"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="58"/>
-    </row>
-    <row r="29" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="43"/>
+    </row>
+    <row r="29" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="9"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="58"/>
-    </row>
-    <row r="30" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="43"/>
+    </row>
+    <row r="30" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="9"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="57"/>
-      <c r="Q30" s="58"/>
-    </row>
-    <row r="31" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="43"/>
+    </row>
+    <row r="31" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="9"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="58"/>
-    </row>
-    <row r="32" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="43"/>
+    </row>
+    <row r="32" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="9"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="57"/>
-      <c r="Q32" s="58"/>
-    </row>
-    <row r="33" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="43"/>
+    </row>
+    <row r="33" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="9"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
-      <c r="N33" s="57"/>
-      <c r="O33" s="57"/>
-      <c r="P33" s="57"/>
-      <c r="Q33" s="58"/>
-    </row>
-    <row r="34" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="43"/>
+    </row>
+    <row r="34" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="9"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="57"/>
-      <c r="P34" s="57"/>
-      <c r="Q34" s="58"/>
-    </row>
-    <row r="35" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="43"/>
+    </row>
+    <row r="35" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="9"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="57"/>
-      <c r="O35" s="57"/>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="58"/>
-    </row>
-    <row r="36" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="43"/>
+    </row>
+    <row r="36" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="9"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
-      <c r="O36" s="57"/>
-      <c r="P36" s="57"/>
-      <c r="Q36" s="58"/>
-    </row>
-    <row r="37" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="61" t="s">
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="43"/>
+    </row>
+    <row r="37" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="62"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="62"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="62"/>
-      <c r="Q37" s="63"/>
-    </row>
-    <row r="38" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="64"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="65"/>
-      <c r="L38" s="65"/>
-      <c r="M38" s="65"/>
-      <c r="N38" s="65"/>
-      <c r="O38" s="65"/>
-      <c r="P38" s="65"/>
-      <c r="Q38" s="66"/>
-    </row>
-    <row r="39" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="64"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="65"/>
-      <c r="K39" s="65"/>
-      <c r="L39" s="65"/>
-      <c r="M39" s="65"/>
-      <c r="N39" s="65"/>
-      <c r="O39" s="65"/>
-      <c r="P39" s="65"/>
-      <c r="Q39" s="66"/>
-    </row>
-    <row r="40" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="64"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="65"/>
-      <c r="K40" s="65"/>
-      <c r="L40" s="65"/>
-      <c r="M40" s="65"/>
-      <c r="N40" s="65"/>
-      <c r="O40" s="65"/>
-      <c r="P40" s="65"/>
-      <c r="Q40" s="66"/>
-    </row>
-    <row r="41" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="67"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="68"/>
-      <c r="L41" s="68"/>
-      <c r="M41" s="68"/>
-      <c r="N41" s="68"/>
-      <c r="O41" s="68"/>
-      <c r="P41" s="68"/>
-      <c r="Q41" s="69"/>
-    </row>
-    <row r="42" spans="2:17" ht="5.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="28" t="s">
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="45"/>
+      <c r="Q37" s="46"/>
+    </row>
+    <row r="38" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="47"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="49"/>
+    </row>
+    <row r="39" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="47"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="48"/>
+      <c r="P39" s="48"/>
+      <c r="Q39" s="49"/>
+    </row>
+    <row r="40" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="47"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="48"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="48"/>
+      <c r="P40" s="48"/>
+      <c r="Q40" s="49"/>
+    </row>
+    <row r="41" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="50"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="51"/>
+      <c r="P41" s="51"/>
+      <c r="Q41" s="52"/>
+    </row>
+    <row r="42" spans="2:17" ht="5.65" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29" t="s">
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29" t="s">
+      <c r="K43" s="54"/>
+      <c r="L43" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29" t="s">
+      <c r="M43" s="54"/>
+      <c r="N43" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29" t="s">
+      <c r="O43" s="54"/>
+      <c r="P43" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="Q43" s="30"/>
-    </row>
-    <row r="44" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="31" t="s">
+      <c r="Q43" s="55"/>
+    </row>
+    <row r="44" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="38" t="s">
+      <c r="C44" s="38"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="I44" s="38"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="34"/>
-      <c r="M44" s="34"/>
-      <c r="N44" s="34"/>
-      <c r="O44" s="34"/>
-      <c r="P44" s="35" t="s">
+      <c r="I44" s="40"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="Q44" s="36"/>
-    </row>
-    <row r="45" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="77"/>
-      <c r="C45" s="78"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="79"/>
-      <c r="F45" s="79"/>
-      <c r="G45" s="79"/>
-      <c r="H45" s="80"/>
-      <c r="I45" s="80"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="33"/>
-      <c r="N45" s="33"/>
-      <c r="O45" s="33"/>
-      <c r="P45" s="81"/>
-      <c r="Q45" s="82"/>
-    </row>
-    <row r="46" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="70"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="74"/>
-      <c r="H46" s="75"/>
-      <c r="I46" s="76"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="34"/>
-      <c r="N46" s="34"/>
-      <c r="O46" s="34"/>
-      <c r="P46" s="35"/>
-      <c r="Q46" s="36"/>
-    </row>
-    <row r="47" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="Q44" s="83"/>
+    </row>
+    <row r="45" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="30"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="35"/>
+      <c r="Q45" s="36"/>
+    </row>
+    <row r="46" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="22"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="17"/>
+    </row>
+    <row r="47" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="122">
+    <mergeCell ref="B1:D4"/>
+    <mergeCell ref="E1:M1"/>
+    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="E3:M3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:Q10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:Q11"/>
+    <mergeCell ref="B7:Q7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:Q9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:Q14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:Q15"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:Q12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:Q13"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:Q18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:Q19"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:Q16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:Q17"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:Q22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:Q23"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:Q20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:Q21"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:Q26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:Q27"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:Q24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:Q25"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:Q30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:Q31"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:Q28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:Q29"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:Q34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:Q35"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:Q32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:Q33"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:Q36"/>
+    <mergeCell ref="B37:Q41"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P43:Q43"/>
     <mergeCell ref="P46:Q46"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="O3:R3"/>
@@ -2796,104 +2897,6 @@
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:Q36"/>
-    <mergeCell ref="B37:Q41"/>
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:Q34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I35:Q35"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:Q32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:Q33"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:Q30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:Q31"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:Q28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:Q29"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:Q26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:Q27"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:Q24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:Q25"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:Q22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:Q23"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:Q20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:Q21"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:Q18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:Q19"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:Q16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:Q17"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:Q14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:Q15"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:Q12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:Q13"/>
-    <mergeCell ref="B1:D4"/>
-    <mergeCell ref="E1:M1"/>
-    <mergeCell ref="E2:M2"/>
-    <mergeCell ref="E3:M3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:Q10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:Q11"/>
-    <mergeCell ref="B7:Q7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:Q9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="98" orientation="portrait" r:id="rId1"/>
@@ -3102,18 +3105,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3136,14 +3139,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3342C9-0999-4E47-99DE-61F63C6EECE1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795AD8BC-805A-47E5-B745-6CE87A160978}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -3158,4 +3153,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3342C9-0999-4E47-99DE-61F63C6EECE1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV5.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV5.xlsx
@@ -783,7 +783,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -848,15 +848,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1042,6 +1033,12 @@
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1637,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AB74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44:Q44"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4:R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -1655,20 +1652,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="59"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="67" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
       <c r="N1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1688,20 +1685,20 @@
       <c r="AB1" s="13"/>
     </row>
     <row r="2" spans="2:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="62"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="71"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="68"/>
       <c r="N2" s="3"/>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
@@ -1719,20 +1716,20 @@
       <c r="AB2" s="13"/>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="72" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="74"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="71"/>
       <c r="N3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1752,17 +1749,17 @@
       <c r="AB3" s="13"/>
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B4" s="65"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="12"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
       <c r="K4" s="4" t="s">
         <v>17</v>
       </c>
@@ -1773,10 +1770,10 @@
       <c r="N4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="22"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="24"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="85"/>
       <c r="S4" s="13"/>
       <c r="T4" s="13"/>
       <c r="U4" s="13"/>
@@ -1816,24 +1813,24 @@
       <c r="AB6" s="13"/>
     </row>
     <row r="7" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="80"/>
-      <c r="P7" s="80"/>
-      <c r="Q7" s="81"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="78"/>
       <c r="S7" s="13"/>
       <c r="T7" s="13"/>
       <c r="U7" s="13"/>
@@ -1846,28 +1843,28 @@
       <c r="AB7" s="13"/>
     </row>
     <row r="8" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84" t="s">
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="84"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="81"/>
       <c r="S8" s="13"/>
       <c r="T8" s="13"/>
       <c r="U8" s="13"/>
@@ -1880,26 +1877,26 @@
       <c r="AB8" s="13"/>
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B9" s="83"/>
-      <c r="C9" s="84" t="s">
+      <c r="B9" s="80"/>
+      <c r="C9" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84" t="s">
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="84"/>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="84"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="81"/>
+      <c r="P9" s="81"/>
+      <c r="Q9" s="81"/>
       <c r="S9" s="13"/>
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
@@ -1912,24 +1909,22 @@
       <c r="AB9" s="13"/>
     </row>
     <row r="10" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="9">
-        <v>1</v>
-      </c>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="77"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="77"/>
-      <c r="Q10" s="78"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="75"/>
       <c r="S10" s="13"/>
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
@@ -1942,24 +1937,22 @@
       <c r="AB10" s="13"/>
     </row>
     <row r="11" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="9">
-        <v>2</v>
-      </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="46"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="43"/>
       <c r="S11" s="13"/>
       <c r="T11" s="13"/>
       <c r="U11" s="13"/>
@@ -1972,24 +1965,22 @@
       <c r="AB11" s="13"/>
     </row>
     <row r="12" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="9">
-        <v>3</v>
-      </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="46"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="43"/>
       <c r="S12" s="13"/>
       <c r="T12" s="13"/>
       <c r="U12" s="13"/>
@@ -2002,24 +1993,22 @@
       <c r="AB12" s="13"/>
     </row>
     <row r="13" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="9">
-        <v>4</v>
-      </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="46"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="43"/>
       <c r="S13" s="13"/>
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
@@ -2032,24 +2021,22 @@
       <c r="AB13" s="13"/>
     </row>
     <row r="14" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="9">
-        <v>5</v>
-      </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="46"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="43"/>
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
@@ -2062,24 +2049,22 @@
       <c r="AB14" s="13"/>
     </row>
     <row r="15" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="9">
-        <v>6</v>
-      </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="46"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="43"/>
       <c r="S15" s="13"/>
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
@@ -2092,24 +2077,22 @@
       <c r="AB15" s="13"/>
     </row>
     <row r="16" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="9">
-        <v>7</v>
-      </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="46"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="43"/>
       <c r="S16" s="13"/>
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
@@ -2122,24 +2105,22 @@
       <c r="AB16" s="13"/>
     </row>
     <row r="17" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="9">
-        <v>8</v>
-      </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="46"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="43"/>
       <c r="S17" s="13"/>
       <c r="T17" s="13"/>
       <c r="U17" s="13"/>
@@ -2152,24 +2133,22 @@
       <c r="AB17" s="13"/>
     </row>
     <row r="18" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="9">
-        <v>9</v>
-      </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="46"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="43"/>
       <c r="S18" s="13"/>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
@@ -2182,24 +2161,22 @@
       <c r="AB18" s="13"/>
     </row>
     <row r="19" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="9">
-        <v>10</v>
-      </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="46"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="43"/>
       <c r="S19" s="13"/>
       <c r="T19" s="13"/>
       <c r="U19" s="13"/>
@@ -2212,24 +2189,22 @@
       <c r="AB19" s="13"/>
     </row>
     <row r="20" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="9">
-        <v>11</v>
-      </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="46"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="43"/>
       <c r="S20" s="13"/>
       <c r="T20" s="13"/>
       <c r="U20" s="13"/>
@@ -2242,24 +2217,22 @@
       <c r="AB20" s="13"/>
     </row>
     <row r="21" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="9">
-        <v>12</v>
-      </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="46"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="43"/>
       <c r="S21" s="13"/>
       <c r="T21" s="13"/>
       <c r="U21" s="13"/>
@@ -2272,24 +2245,22 @@
       <c r="AB21" s="13"/>
     </row>
     <row r="22" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="9">
-        <v>13</v>
-      </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="46"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="43"/>
       <c r="S22" s="13"/>
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
@@ -2302,24 +2273,22 @@
       <c r="AB22" s="13"/>
     </row>
     <row r="23" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="9">
-        <v>14</v>
-      </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="46"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="43"/>
       <c r="S23" s="13"/>
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
@@ -2332,24 +2301,22 @@
       <c r="AB23" s="13"/>
     </row>
     <row r="24" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="9">
-        <v>15</v>
-      </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="46"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="43"/>
       <c r="S24" s="13"/>
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
@@ -2362,24 +2329,22 @@
       <c r="AB24" s="13"/>
     </row>
     <row r="25" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="9">
-        <v>16</v>
-      </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="46"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="43"/>
       <c r="S25" s="13"/>
       <c r="T25" s="13"/>
       <c r="U25" s="13"/>
@@ -2392,24 +2357,22 @@
       <c r="AB25" s="13"/>
     </row>
     <row r="26" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="9">
-        <v>17</v>
-      </c>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="46"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="43"/>
       <c r="S26" s="13"/>
       <c r="T26" s="13"/>
       <c r="U26" s="13"/>
@@ -2422,383 +2385,363 @@
       <c r="AB26" s="13"/>
     </row>
     <row r="27" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="9">
-        <v>18</v>
-      </c>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="46"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="43"/>
     </row>
     <row r="28" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="9">
-        <v>19</v>
-      </c>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="46"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="43"/>
     </row>
     <row r="29" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="9">
-        <v>20</v>
-      </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="46"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="43"/>
     </row>
     <row r="30" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="9">
-        <v>21</v>
-      </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="46"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="43"/>
     </row>
     <row r="31" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="9">
-        <v>22</v>
-      </c>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="46"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="43"/>
     </row>
     <row r="32" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="9">
+      <c r="B32" s="9"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="43"/>
+    </row>
+    <row r="33" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="9"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="43"/>
+    </row>
+    <row r="34" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="9"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="43"/>
+    </row>
+    <row r="35" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="9"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="43"/>
+    </row>
+    <row r="36" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="9"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="43"/>
+    </row>
+    <row r="37" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="46"/>
-    </row>
-    <row r="33" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="9">
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="45"/>
+      <c r="Q37" s="46"/>
+    </row>
+    <row r="38" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="47"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="49"/>
+    </row>
+    <row r="39" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="47"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="48"/>
+      <c r="P39" s="48"/>
+      <c r="Q39" s="49"/>
+    </row>
+    <row r="40" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="47"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="48"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="48"/>
+      <c r="P40" s="48"/>
+      <c r="Q40" s="49"/>
+    </row>
+    <row r="41" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="50"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="51"/>
+      <c r="P41" s="51"/>
+      <c r="Q41" s="52"/>
+    </row>
+    <row r="42" spans="2:17" ht="5.65" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" s="54"/>
+      <c r="L43" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="M43" s="54"/>
+      <c r="N43" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="O43" s="54"/>
+      <c r="P43" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q43" s="55"/>
+    </row>
+    <row r="44" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="46"/>
-    </row>
-    <row r="34" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="9">
-        <v>25</v>
-      </c>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="45"/>
-      <c r="O34" s="45"/>
-      <c r="P34" s="45"/>
-      <c r="Q34" s="46"/>
-    </row>
-    <row r="35" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="9">
-        <v>26</v>
-      </c>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="45"/>
-      <c r="O35" s="45"/>
-      <c r="P35" s="45"/>
-      <c r="Q35" s="46"/>
-    </row>
-    <row r="36" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="9">
-        <v>27</v>
-      </c>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="46"/>
-    </row>
-    <row r="37" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="48"/>
-      <c r="Q37" s="49"/>
-    </row>
-    <row r="38" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="50"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="51"/>
-      <c r="O38" s="51"/>
-      <c r="P38" s="51"/>
-      <c r="Q38" s="52"/>
-    </row>
-    <row r="39" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="50"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="51"/>
-      <c r="O39" s="51"/>
-      <c r="P39" s="51"/>
-      <c r="Q39" s="52"/>
-    </row>
-    <row r="40" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="50"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="51"/>
-      <c r="N40" s="51"/>
-      <c r="O40" s="51"/>
-      <c r="P40" s="51"/>
-      <c r="Q40" s="52"/>
-    </row>
-    <row r="41" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="53"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
-      <c r="N41" s="54"/>
-      <c r="O41" s="54"/>
-      <c r="P41" s="54"/>
-      <c r="Q41" s="55"/>
-    </row>
-    <row r="42" spans="2:17" ht="5.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="57"/>
-      <c r="L43" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="M43" s="57"/>
-      <c r="N43" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="O43" s="57"/>
-      <c r="P43" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q43" s="58"/>
-    </row>
-    <row r="44" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="41"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="43" t="s">
+      <c r="C44" s="38"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="I44" s="43"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="32"/>
-      <c r="M44" s="32"/>
-      <c r="N44" s="32"/>
-      <c r="O44" s="32"/>
-      <c r="P44" s="85" t="s">
+      <c r="I44" s="40"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="Q44" s="86"/>
+      <c r="Q44" s="83"/>
     </row>
     <row r="45" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="33"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="37"/>
-      <c r="M45" s="37"/>
-      <c r="N45" s="37"/>
-      <c r="O45" s="37"/>
-      <c r="P45" s="38"/>
-      <c r="Q45" s="39"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="35"/>
+      <c r="Q45" s="36"/>
     </row>
     <row r="46" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="25"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="32"/>
-      <c r="K46" s="32"/>
-      <c r="L46" s="32"/>
-      <c r="M46" s="32"/>
-      <c r="N46" s="32"/>
-      <c r="O46" s="32"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="29"/>
       <c r="P46" s="16"/>
       <c r="Q46" s="17"/>
     </row>
@@ -2965,21 +2908,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010049A98165F7642E47B17A8718C6309C3C" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9df6a80b683f270dae4d8a9378e1d1ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0a527c08-909e-4034-a4b4-e3dc69cf1394" xmlns:ns3="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0c18106f391fc927c4fcfd7d01849ca" ns2:_="" ns3:_="">
     <xsd:import namespace="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
@@ -3176,7 +3104,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845AA705-DFFE-46E6-825A-7AEA3224B1E5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
+    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795AD8BC-805A-47E5-B745-6CE87A160978}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -3193,29 +3155,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3342C9-0999-4E47-99DE-61F63C6EECE1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845AA705-DFFE-46E6-825A-7AEA3224B1E5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
-    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV5.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV5.xlsx
@@ -830,6 +830,129 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -848,6 +971,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -872,6 +1001,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -904,141 +1039,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1078,7 +1078,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5560062A-CEC6-4E1F-AAB8-BB76EE3F64C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5560062A-CEC6-4E1F-AAB8-BB76EE3F64C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1128,7 +1128,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{009A5697-667C-4D18-BFE3-FF9CCD889E10}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{009A5697-667C-4D18-BFE3-FF9CCD889E10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1207,7 +1207,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B292BE2E-1B46-45AD-887D-C02B025B0727}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B292BE2E-1B46-45AD-887D-C02B025B0727}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1634,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AB74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4:R4"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -1652,27 +1652,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="56"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="64" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
       <c r="N1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="19"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="60"/>
       <c r="S1" s="13"/>
       <c r="T1" s="13"/>
       <c r="U1" s="13"/>
@@ -1685,20 +1685,20 @@
       <c r="AB1" s="13"/>
     </row>
     <row r="2" spans="2:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="59"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="68"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="28"/>
       <c r="N2" s="3"/>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
@@ -1716,27 +1716,27 @@
       <c r="AB2" s="13"/>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B3" s="59"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="69" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="71"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
       <c r="N3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="21"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="62"/>
       <c r="S3" s="13"/>
       <c r="T3" s="13"/>
       <c r="U3" s="13"/>
@@ -1749,17 +1749,17 @@
       <c r="AB3" s="13"/>
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B4" s="62"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="12"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
       <c r="K4" s="4" t="s">
         <v>17</v>
       </c>
@@ -1770,10 +1770,10 @@
       <c r="N4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="85"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="64"/>
       <c r="S4" s="13"/>
       <c r="T4" s="13"/>
       <c r="U4" s="13"/>
@@ -1813,24 +1813,24 @@
       <c r="AB6" s="13"/>
     </row>
     <row r="7" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="78"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="41"/>
       <c r="S7" s="13"/>
       <c r="T7" s="13"/>
       <c r="U7" s="13"/>
@@ -1843,28 +1843,28 @@
       <c r="AB7" s="13"/>
     </row>
     <row r="8" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81" t="s">
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="81"/>
-      <c r="Q8" s="81"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
       <c r="S8" s="13"/>
       <c r="T8" s="13"/>
       <c r="U8" s="13"/>
@@ -1877,26 +1877,26 @@
       <c r="AB8" s="13"/>
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B9" s="80"/>
-      <c r="C9" s="81" t="s">
+      <c r="B9" s="43"/>
+      <c r="C9" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81" t="s">
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
       <c r="S9" s="13"/>
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
@@ -1909,22 +1909,24 @@
       <c r="AB9" s="13"/>
     </row>
     <row r="10" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="9"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="75"/>
+      <c r="B10" s="9">
+        <v>1</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="35"/>
       <c r="S10" s="13"/>
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
@@ -1937,22 +1939,24 @@
       <c r="AB10" s="13"/>
     </row>
     <row r="11" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="9"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="43"/>
+      <c r="B11" s="9">
+        <v>2</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="38"/>
       <c r="S11" s="13"/>
       <c r="T11" s="13"/>
       <c r="U11" s="13"/>
@@ -1965,22 +1969,24 @@
       <c r="AB11" s="13"/>
     </row>
     <row r="12" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="9"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="43"/>
+      <c r="B12" s="9">
+        <v>3</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="38"/>
       <c r="S12" s="13"/>
       <c r="T12" s="13"/>
       <c r="U12" s="13"/>
@@ -1993,22 +1999,24 @@
       <c r="AB12" s="13"/>
     </row>
     <row r="13" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="9"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="43"/>
+      <c r="B13" s="9">
+        <v>4</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="38"/>
       <c r="S13" s="13"/>
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
@@ -2021,22 +2029,24 @@
       <c r="AB13" s="13"/>
     </row>
     <row r="14" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="9"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="43"/>
+      <c r="B14" s="9">
+        <v>5</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="38"/>
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
@@ -2049,22 +2059,24 @@
       <c r="AB14" s="13"/>
     </row>
     <row r="15" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="9"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="43"/>
+      <c r="B15" s="9">
+        <v>6</v>
+      </c>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="38"/>
       <c r="S15" s="13"/>
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
@@ -2077,22 +2089,24 @@
       <c r="AB15" s="13"/>
     </row>
     <row r="16" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="9"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="43"/>
+      <c r="B16" s="9">
+        <v>7</v>
+      </c>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="38"/>
       <c r="S16" s="13"/>
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
@@ -2105,22 +2119,24 @@
       <c r="AB16" s="13"/>
     </row>
     <row r="17" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="9"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="43"/>
+      <c r="B17" s="9">
+        <v>8</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="38"/>
       <c r="S17" s="13"/>
       <c r="T17" s="13"/>
       <c r="U17" s="13"/>
@@ -2133,22 +2149,24 @@
       <c r="AB17" s="13"/>
     </row>
     <row r="18" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="9"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="43"/>
+      <c r="B18" s="9">
+        <v>9</v>
+      </c>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="38"/>
       <c r="S18" s="13"/>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
@@ -2161,22 +2179,24 @@
       <c r="AB18" s="13"/>
     </row>
     <row r="19" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="9"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="43"/>
+      <c r="B19" s="9">
+        <v>10</v>
+      </c>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="38"/>
       <c r="S19" s="13"/>
       <c r="T19" s="13"/>
       <c r="U19" s="13"/>
@@ -2189,22 +2209,24 @@
       <c r="AB19" s="13"/>
     </row>
     <row r="20" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="9"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="43"/>
+      <c r="B20" s="9">
+        <v>11</v>
+      </c>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="38"/>
       <c r="S20" s="13"/>
       <c r="T20" s="13"/>
       <c r="U20" s="13"/>
@@ -2217,22 +2239,24 @@
       <c r="AB20" s="13"/>
     </row>
     <row r="21" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="9"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="43"/>
+      <c r="B21" s="9">
+        <v>12</v>
+      </c>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="38"/>
       <c r="S21" s="13"/>
       <c r="T21" s="13"/>
       <c r="U21" s="13"/>
@@ -2245,22 +2269,24 @@
       <c r="AB21" s="13"/>
     </row>
     <row r="22" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="9"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="43"/>
+      <c r="B22" s="9">
+        <v>13</v>
+      </c>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="38"/>
       <c r="S22" s="13"/>
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
@@ -2273,22 +2299,24 @@
       <c r="AB22" s="13"/>
     </row>
     <row r="23" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="9"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="43"/>
+      <c r="B23" s="9">
+        <v>14</v>
+      </c>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="38"/>
       <c r="S23" s="13"/>
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
@@ -2301,22 +2329,24 @@
       <c r="AB23" s="13"/>
     </row>
     <row r="24" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="9"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="43"/>
+      <c r="B24" s="9">
+        <v>15</v>
+      </c>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="38"/>
       <c r="S24" s="13"/>
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
@@ -2329,22 +2359,24 @@
       <c r="AB24" s="13"/>
     </row>
     <row r="25" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="9"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="43"/>
+      <c r="B25" s="9">
+        <v>16</v>
+      </c>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="38"/>
       <c r="S25" s="13"/>
       <c r="T25" s="13"/>
       <c r="U25" s="13"/>
@@ -2357,22 +2389,24 @@
       <c r="AB25" s="13"/>
     </row>
     <row r="26" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="9"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="43"/>
+      <c r="B26" s="9">
+        <v>17</v>
+      </c>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="38"/>
       <c r="S26" s="13"/>
       <c r="T26" s="13"/>
       <c r="U26" s="13"/>
@@ -2385,365 +2419,385 @@
       <c r="AB26" s="13"/>
     </row>
     <row r="27" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="9"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="43"/>
+      <c r="B27" s="9">
+        <v>18</v>
+      </c>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="38"/>
     </row>
     <row r="28" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="9"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="43"/>
+      <c r="B28" s="9">
+        <v>19</v>
+      </c>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="38"/>
     </row>
     <row r="29" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="9"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="43"/>
+      <c r="B29" s="9">
+        <v>20</v>
+      </c>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="38"/>
     </row>
     <row r="30" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="9"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="43"/>
+      <c r="B30" s="9">
+        <v>21</v>
+      </c>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="38"/>
     </row>
     <row r="31" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="9"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="43"/>
+      <c r="B31" s="9">
+        <v>22</v>
+      </c>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="38"/>
     </row>
     <row r="32" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="9"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="42"/>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="43"/>
+      <c r="B32" s="9">
+        <v>23</v>
+      </c>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="38"/>
     </row>
     <row r="33" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="9"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="42"/>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="43"/>
+      <c r="B33" s="9">
+        <v>24</v>
+      </c>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="38"/>
     </row>
     <row r="34" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="9"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="43"/>
+      <c r="B34" s="9">
+        <v>25</v>
+      </c>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="38"/>
     </row>
     <row r="35" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="9"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="42"/>
-      <c r="N35" s="42"/>
-      <c r="O35" s="42"/>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="43"/>
+      <c r="B35" s="9">
+        <v>26</v>
+      </c>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="38"/>
     </row>
     <row r="36" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="9"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="42"/>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="43"/>
+      <c r="B36" s="9">
+        <v>27</v>
+      </c>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="38"/>
     </row>
     <row r="37" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="44" t="s">
+      <c r="B37" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
-      <c r="O37" s="45"/>
-      <c r="P37" s="45"/>
-      <c r="Q37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="46"/>
+      <c r="Q37" s="47"/>
     </row>
     <row r="38" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="47"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="48"/>
-      <c r="P38" s="48"/>
-      <c r="Q38" s="49"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="49"/>
+      <c r="Q38" s="50"/>
     </row>
     <row r="39" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="47"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="48"/>
-      <c r="P39" s="48"/>
-      <c r="Q39" s="49"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="50"/>
     </row>
     <row r="40" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="47"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="48"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="48"/>
-      <c r="P40" s="48"/>
-      <c r="Q40" s="49"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="49"/>
+      <c r="P40" s="49"/>
+      <c r="Q40" s="50"/>
     </row>
     <row r="41" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="50"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="51"/>
-      <c r="N41" s="51"/>
-      <c r="O41" s="51"/>
-      <c r="P41" s="51"/>
-      <c r="Q41" s="52"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="52"/>
+      <c r="O41" s="52"/>
+      <c r="P41" s="52"/>
+      <c r="Q41" s="53"/>
     </row>
     <row r="42" spans="2:17" ht="5.65" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="43" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="53" t="s">
+      <c r="B43" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="54" t="s">
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="54"/>
-      <c r="L43" s="54" t="s">
+      <c r="K43" s="55"/>
+      <c r="L43" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="M43" s="54"/>
-      <c r="N43" s="54" t="s">
+      <c r="M43" s="55"/>
+      <c r="N43" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="O43" s="54"/>
-      <c r="P43" s="54" t="s">
+      <c r="O43" s="55"/>
+      <c r="P43" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="Q43" s="55"/>
+      <c r="Q43" s="56"/>
     </row>
     <row r="44" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="37" t="s">
+      <c r="B44" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="38"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="40" t="s">
+      <c r="C44" s="83"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="84"/>
+      <c r="G44" s="84"/>
+      <c r="H44" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="I44" s="40"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="29"/>
-      <c r="N44" s="29"/>
-      <c r="O44" s="29"/>
-      <c r="P44" s="82" t="s">
+      <c r="I44" s="85"/>
+      <c r="J44" s="72"/>
+      <c r="K44" s="72"/>
+      <c r="L44" s="72"/>
+      <c r="M44" s="72"/>
+      <c r="N44" s="72"/>
+      <c r="O44" s="72"/>
+      <c r="P44" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="Q44" s="83"/>
+      <c r="Q44" s="74"/>
     </row>
     <row r="45" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="30"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="34"/>
-      <c r="N45" s="34"/>
-      <c r="O45" s="34"/>
-      <c r="P45" s="35"/>
-      <c r="Q45" s="36"/>
+      <c r="B45" s="75"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="77"/>
+      <c r="H45" s="78"/>
+      <c r="I45" s="78"/>
+      <c r="J45" s="79"/>
+      <c r="K45" s="79"/>
+      <c r="L45" s="79"/>
+      <c r="M45" s="79"/>
+      <c r="N45" s="79"/>
+      <c r="O45" s="79"/>
+      <c r="P45" s="80"/>
+      <c r="Q45" s="81"/>
     </row>
     <row r="46" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="22"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="29"/>
-      <c r="N46" s="29"/>
-      <c r="O46" s="29"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="17"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="70"/>
+      <c r="I46" s="71"/>
+      <c r="J46" s="72"/>
+      <c r="K46" s="72"/>
+      <c r="L46" s="72"/>
+      <c r="M46" s="72"/>
+      <c r="N46" s="72"/>
+      <c r="O46" s="72"/>
+      <c r="P46" s="57"/>
+      <c r="Q46" s="58"/>
     </row>
     <row r="47" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="48" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2775,104 +2829,6 @@
     <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="122">
-    <mergeCell ref="B1:D4"/>
-    <mergeCell ref="E1:M1"/>
-    <mergeCell ref="E2:M2"/>
-    <mergeCell ref="E3:M3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:Q10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:Q11"/>
-    <mergeCell ref="B7:Q7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:Q9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:Q14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:Q15"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:Q12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:Q13"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:Q18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:Q19"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:Q16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:Q17"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:Q22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:Q23"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:Q20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:Q21"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:Q26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:Q27"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:Q24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:Q25"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:Q30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:Q31"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:Q28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:Q29"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:Q34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I35:Q35"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:Q32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:Q33"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:Q36"/>
-    <mergeCell ref="B37:Q41"/>
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P43:Q43"/>
     <mergeCell ref="P46:Q46"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="O3:R3"/>
@@ -2897,6 +2853,104 @@
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:Q36"/>
+    <mergeCell ref="B37:Q41"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:Q34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:Q35"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:Q32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:Q33"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:Q30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:Q31"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:Q28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:Q29"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:Q26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:Q27"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:Q24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:Q25"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:Q22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:Q23"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:Q20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:Q21"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:Q18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:Q19"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:Q16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:Q17"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:Q14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:Q15"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:Q12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:Q13"/>
+    <mergeCell ref="B1:D4"/>
+    <mergeCell ref="E1:M1"/>
+    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="E3:M3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:Q10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:Q11"/>
+    <mergeCell ref="B7:Q7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:Q9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="98" orientation="portrait" r:id="rId1"/>
@@ -2908,6 +2962,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010049A98165F7642E47B17A8718C6309C3C" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9df6a80b683f270dae4d8a9378e1d1ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0a527c08-909e-4034-a4b4-e3dc69cf1394" xmlns:ns3="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0c18106f391fc927c4fcfd7d01849ca" ns2:_="" ns3:_="">
     <xsd:import namespace="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
@@ -3104,36 +3173,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845AA705-DFFE-46E6-825A-7AEA3224B1E5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3342C9-0999-4E47-99DE-61F63C6EECE1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
-    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3156,9 +3199,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3342C9-0999-4E47-99DE-61F63C6EECE1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845AA705-DFFE-46E6-825A-7AEA3224B1E5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
+    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV5.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV5.xlsx
@@ -830,6 +830,135 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -881,24 +1010,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -917,128 +1034,11 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1078,7 +1078,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5560062A-CEC6-4E1F-AAB8-BB76EE3F64C8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5560062A-CEC6-4E1F-AAB8-BB76EE3F64C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1128,7 +1128,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{009A5697-667C-4D18-BFE3-FF9CCD889E10}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{009A5697-667C-4D18-BFE3-FF9CCD889E10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1207,7 +1207,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B292BE2E-1B46-45AD-887D-C02B025B0727}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B292BE2E-1B46-45AD-887D-C02B025B0727}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1634,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AB74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:Q41"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -1652,27 +1652,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="24" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
       <c r="N1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="60"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="19"/>
       <c r="S1" s="13"/>
       <c r="T1" s="13"/>
       <c r="U1" s="13"/>
@@ -1685,20 +1685,20 @@
       <c r="AB1" s="13"/>
     </row>
     <row r="2" spans="2:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="26" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="28"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="71"/>
       <c r="N2" s="3"/>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
@@ -1716,27 +1716,27 @@
       <c r="AB2" s="13"/>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="29" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="31"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="74"/>
       <c r="N3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="62"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="21"/>
       <c r="S3" s="13"/>
       <c r="T3" s="13"/>
       <c r="U3" s="13"/>
@@ -1749,17 +1749,17 @@
       <c r="AB3" s="13"/>
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="12"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
       <c r="K4" s="4" t="s">
         <v>17</v>
       </c>
@@ -1770,10 +1770,10 @@
       <c r="N4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="64"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="23"/>
       <c r="S4" s="13"/>
       <c r="T4" s="13"/>
       <c r="U4" s="13"/>
@@ -1813,24 +1813,24 @@
       <c r="AB6" s="13"/>
     </row>
     <row r="7" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="41"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="79"/>
+      <c r="P7" s="79"/>
+      <c r="Q7" s="80"/>
       <c r="S7" s="13"/>
       <c r="T7" s="13"/>
       <c r="U7" s="13"/>
@@ -1843,28 +1843,28 @@
       <c r="AB7" s="13"/>
     </row>
     <row r="8" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44" t="s">
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="83"/>
+      <c r="P8" s="83"/>
+      <c r="Q8" s="83"/>
       <c r="S8" s="13"/>
       <c r="T8" s="13"/>
       <c r="U8" s="13"/>
@@ -1877,26 +1877,26 @@
       <c r="AB8" s="13"/>
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B9" s="43"/>
-      <c r="C9" s="44" t="s">
+      <c r="B9" s="82"/>
+      <c r="C9" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44" t="s">
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="83"/>
       <c r="S9" s="13"/>
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
@@ -1912,21 +1912,21 @@
       <c r="B10" s="9">
         <v>1</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="35"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="77"/>
       <c r="S10" s="13"/>
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
@@ -1942,21 +1942,21 @@
       <c r="B11" s="9">
         <v>2</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="38"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="46"/>
       <c r="S11" s="13"/>
       <c r="T11" s="13"/>
       <c r="U11" s="13"/>
@@ -1972,21 +1972,21 @@
       <c r="B12" s="9">
         <v>3</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="38"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="46"/>
       <c r="S12" s="13"/>
       <c r="T12" s="13"/>
       <c r="U12" s="13"/>
@@ -2002,21 +2002,21 @@
       <c r="B13" s="9">
         <v>4</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="38"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="46"/>
       <c r="S13" s="13"/>
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
@@ -2032,21 +2032,21 @@
       <c r="B14" s="9">
         <v>5</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="38"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="46"/>
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
@@ -2062,21 +2062,21 @@
       <c r="B15" s="9">
         <v>6</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="38"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="46"/>
       <c r="S15" s="13"/>
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
@@ -2092,21 +2092,21 @@
       <c r="B16" s="9">
         <v>7</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="38"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="46"/>
       <c r="S16" s="13"/>
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
@@ -2122,21 +2122,21 @@
       <c r="B17" s="9">
         <v>8</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="38"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="46"/>
       <c r="S17" s="13"/>
       <c r="T17" s="13"/>
       <c r="U17" s="13"/>
@@ -2152,21 +2152,21 @@
       <c r="B18" s="9">
         <v>9</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="38"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="46"/>
       <c r="S18" s="13"/>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
@@ -2182,21 +2182,21 @@
       <c r="B19" s="9">
         <v>10</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="38"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="46"/>
       <c r="S19" s="13"/>
       <c r="T19" s="13"/>
       <c r="U19" s="13"/>
@@ -2212,21 +2212,21 @@
       <c r="B20" s="9">
         <v>11</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="38"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="46"/>
       <c r="S20" s="13"/>
       <c r="T20" s="13"/>
       <c r="U20" s="13"/>
@@ -2242,21 +2242,21 @@
       <c r="B21" s="9">
         <v>12</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="38"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="46"/>
       <c r="S21" s="13"/>
       <c r="T21" s="13"/>
       <c r="U21" s="13"/>
@@ -2272,21 +2272,21 @@
       <c r="B22" s="9">
         <v>13</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="38"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="46"/>
       <c r="S22" s="13"/>
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
@@ -2302,21 +2302,21 @@
       <c r="B23" s="9">
         <v>14</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="38"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="46"/>
       <c r="S23" s="13"/>
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
@@ -2332,21 +2332,21 @@
       <c r="B24" s="9">
         <v>15</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="38"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="46"/>
       <c r="S24" s="13"/>
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
@@ -2362,21 +2362,21 @@
       <c r="B25" s="9">
         <v>16</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="38"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="46"/>
       <c r="S25" s="13"/>
       <c r="T25" s="13"/>
       <c r="U25" s="13"/>
@@ -2392,21 +2392,21 @@
       <c r="B26" s="9">
         <v>17</v>
       </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="38"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="46"/>
       <c r="S26" s="13"/>
       <c r="T26" s="13"/>
       <c r="U26" s="13"/>
@@ -2422,382 +2422,382 @@
       <c r="B27" s="9">
         <v>18</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="38"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="46"/>
     </row>
     <row r="28" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="9">
         <v>19</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="38"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="46"/>
     </row>
     <row r="29" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="9">
         <v>20</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="38"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="46"/>
     </row>
     <row r="30" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="9">
         <v>21</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="38"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="46"/>
     </row>
     <row r="31" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="9">
         <v>22</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="38"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="46"/>
     </row>
     <row r="32" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="9">
         <v>23</v>
       </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="38"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="46"/>
     </row>
     <row r="33" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="9">
         <v>24</v>
       </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="38"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="46"/>
     </row>
     <row r="34" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="9">
         <v>25</v>
       </c>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="38"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="46"/>
     </row>
     <row r="35" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="9">
         <v>26</v>
       </c>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="38"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="45"/>
+      <c r="P35" s="45"/>
+      <c r="Q35" s="46"/>
     </row>
     <row r="36" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="9">
         <v>27</v>
       </c>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="38"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="85"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="45"/>
+      <c r="Q36" s="46"/>
     </row>
     <row r="37" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="45" t="s">
+      <c r="B37" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="46"/>
-      <c r="N37" s="46"/>
-      <c r="O37" s="46"/>
-      <c r="P37" s="46"/>
-      <c r="Q37" s="47"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="49"/>
     </row>
     <row r="38" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="48"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="49"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="49"/>
-      <c r="O38" s="49"/>
-      <c r="P38" s="49"/>
-      <c r="Q38" s="50"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="51"/>
+      <c r="Q38" s="52"/>
     </row>
     <row r="39" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="48"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="49"/>
-      <c r="O39" s="49"/>
-      <c r="P39" s="49"/>
-      <c r="Q39" s="50"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="51"/>
+      <c r="Q39" s="52"/>
     </row>
     <row r="40" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="48"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="49"/>
-      <c r="O40" s="49"/>
-      <c r="P40" s="49"/>
-      <c r="Q40" s="50"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="51"/>
+      <c r="P40" s="51"/>
+      <c r="Q40" s="52"/>
     </row>
     <row r="41" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="51"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="52"/>
-      <c r="M41" s="52"/>
-      <c r="N41" s="52"/>
-      <c r="O41" s="52"/>
-      <c r="P41" s="52"/>
-      <c r="Q41" s="53"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="54"/>
+      <c r="Q41" s="55"/>
     </row>
     <row r="42" spans="2:17" ht="5.65" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="43" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="54" t="s">
+      <c r="B43" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="55"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="55"/>
-      <c r="J43" s="55" t="s">
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="55"/>
-      <c r="L43" s="55" t="s">
+      <c r="K43" s="57"/>
+      <c r="L43" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="M43" s="55"/>
-      <c r="N43" s="55" t="s">
+      <c r="M43" s="57"/>
+      <c r="N43" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="O43" s="55"/>
-      <c r="P43" s="55" t="s">
+      <c r="O43" s="57"/>
+      <c r="P43" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="Q43" s="56"/>
+      <c r="Q43" s="58"/>
     </row>
     <row r="44" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="82" t="s">
+      <c r="B44" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="83"/>
-      <c r="D44" s="84"/>
-      <c r="E44" s="84"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="84"/>
-      <c r="H44" s="85" t="s">
+      <c r="C44" s="42"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="I44" s="85"/>
-      <c r="J44" s="72"/>
-      <c r="K44" s="72"/>
-      <c r="L44" s="72"/>
-      <c r="M44" s="72"/>
-      <c r="N44" s="72"/>
-      <c r="O44" s="72"/>
-      <c r="P44" s="73" t="s">
+      <c r="I44" s="44"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="Q44" s="74"/>
+      <c r="Q44" s="33"/>
     </row>
     <row r="45" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="75"/>
-      <c r="C45" s="76"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="77"/>
-      <c r="F45" s="77"/>
-      <c r="G45" s="77"/>
-      <c r="H45" s="78"/>
-      <c r="I45" s="78"/>
-      <c r="J45" s="79"/>
-      <c r="K45" s="79"/>
-      <c r="L45" s="79"/>
-      <c r="M45" s="79"/>
-      <c r="N45" s="79"/>
-      <c r="O45" s="79"/>
-      <c r="P45" s="80"/>
-      <c r="Q45" s="81"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="38"/>
+      <c r="O45" s="38"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="40"/>
     </row>
     <row r="46" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="65"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="69"/>
-      <c r="H46" s="70"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="72"/>
-      <c r="K46" s="72"/>
-      <c r="L46" s="72"/>
-      <c r="M46" s="72"/>
-      <c r="N46" s="72"/>
-      <c r="O46" s="72"/>
-      <c r="P46" s="57"/>
-      <c r="Q46" s="58"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="17"/>
     </row>
     <row r="47" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="48" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2829,6 +2829,104 @@
     <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="122">
+    <mergeCell ref="B1:D4"/>
+    <mergeCell ref="E1:M1"/>
+    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="E3:M3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:Q10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:Q11"/>
+    <mergeCell ref="B7:Q7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:Q9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:Q14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:Q15"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:Q12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:Q13"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:Q18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:Q19"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:Q16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:Q17"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:Q22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:Q23"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:Q20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:Q21"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:Q26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:Q27"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:Q24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:Q25"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:Q30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:Q31"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:Q28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:Q29"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:Q34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:Q35"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:Q32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:Q33"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:Q36"/>
+    <mergeCell ref="B37:Q41"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P43:Q43"/>
     <mergeCell ref="P46:Q46"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="O3:R3"/>
@@ -2853,104 +2951,6 @@
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:Q36"/>
-    <mergeCell ref="B37:Q41"/>
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:Q34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I35:Q35"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:Q32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:Q33"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:Q30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:Q31"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:Q28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:Q29"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:Q26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:Q27"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:Q24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:Q25"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:Q22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:Q23"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:Q20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:Q21"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:Q18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:Q19"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:Q16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:Q17"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:Q14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:Q15"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:Q12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:Q13"/>
-    <mergeCell ref="B1:D4"/>
-    <mergeCell ref="E1:M1"/>
-    <mergeCell ref="E2:M2"/>
-    <mergeCell ref="E3:M3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:Q10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:Q11"/>
-    <mergeCell ref="B7:Q7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:Q9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="98" orientation="portrait" r:id="rId1"/>
@@ -2971,12 +2971,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010049A98165F7642E47B17A8718C6309C3C" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9df6a80b683f270dae4d8a9378e1d1ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0a527c08-909e-4034-a4b4-e3dc69cf1394" xmlns:ns3="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0c18106f391fc927c4fcfd7d01849ca" ns2:_="" ns3:_="">
     <xsd:import namespace="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
@@ -3173,6 +3167,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3342C9-0999-4E47-99DE-61F63C6EECE1}">
   <ds:schemaRefs>
@@ -3182,23 +3182,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795AD8BC-805A-47E5-B745-6CE87A160978}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
-    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845AA705-DFFE-46E6-825A-7AEA3224B1E5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3215,4 +3198,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795AD8BC-805A-47E5-B745-6CE87A160978}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
+    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV5.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV5.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">CONTRACT NO: PWD/HO/B130/2019 </t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Verifier</t>
+  </si>
+  <si>
+    <t>Endaya Construction Sdn Bhd</t>
   </si>
 </sst>
 </file>
@@ -830,6 +833,129 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -916,129 +1042,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1078,7 +1081,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5560062A-CEC6-4E1F-AAB8-BB76EE3F64C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5560062A-CEC6-4E1F-AAB8-BB76EE3F64C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1128,7 +1131,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{009A5697-667C-4D18-BFE3-FF9CCD889E10}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{009A5697-667C-4D18-BFE3-FF9CCD889E10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1207,7 +1210,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B292BE2E-1B46-45AD-887D-C02B025B0727}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B292BE2E-1B46-45AD-887D-C02B025B0727}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1634,8 +1637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AB74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:H36"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A36" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44:Q44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -1652,27 +1655,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="59"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="67" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
       <c r="N1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="19"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="60"/>
       <c r="S1" s="13"/>
       <c r="T1" s="13"/>
       <c r="U1" s="13"/>
@@ -1685,20 +1688,20 @@
       <c r="AB1" s="13"/>
     </row>
     <row r="2" spans="2:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="62"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="71"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="28"/>
       <c r="N2" s="3"/>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
@@ -1716,27 +1719,27 @@
       <c r="AB2" s="13"/>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="72" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="74"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
       <c r="N3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="21"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="62"/>
       <c r="S3" s="13"/>
       <c r="T3" s="13"/>
       <c r="U3" s="13"/>
@@ -1749,17 +1752,17 @@
       <c r="AB3" s="13"/>
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B4" s="65"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="12"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
       <c r="K4" s="4" t="s">
         <v>17</v>
       </c>
@@ -1770,10 +1773,10 @@
       <c r="N4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="23"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="64"/>
       <c r="S4" s="13"/>
       <c r="T4" s="13"/>
       <c r="U4" s="13"/>
@@ -1813,24 +1816,24 @@
       <c r="AB6" s="13"/>
     </row>
     <row r="7" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="79"/>
-      <c r="O7" s="79"/>
-      <c r="P7" s="79"/>
-      <c r="Q7" s="80"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="41"/>
       <c r="S7" s="13"/>
       <c r="T7" s="13"/>
       <c r="U7" s="13"/>
@@ -1843,28 +1846,28 @@
       <c r="AB7" s="13"/>
     </row>
     <row r="8" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83" t="s">
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="83"/>
-      <c r="P8" s="83"/>
-      <c r="Q8" s="83"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
       <c r="S8" s="13"/>
       <c r="T8" s="13"/>
       <c r="U8" s="13"/>
@@ -1877,26 +1880,26 @@
       <c r="AB8" s="13"/>
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B9" s="82"/>
-      <c r="C9" s="83" t="s">
+      <c r="B9" s="43"/>
+      <c r="C9" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83" t="s">
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="83"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
       <c r="S9" s="13"/>
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
@@ -1912,21 +1915,21 @@
       <c r="B10" s="9">
         <v>1</v>
       </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="77"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="35"/>
       <c r="S10" s="13"/>
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
@@ -1942,21 +1945,21 @@
       <c r="B11" s="9">
         <v>2</v>
       </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="46"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="38"/>
       <c r="S11" s="13"/>
       <c r="T11" s="13"/>
       <c r="U11" s="13"/>
@@ -1972,21 +1975,21 @@
       <c r="B12" s="9">
         <v>3</v>
       </c>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="46"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="38"/>
       <c r="S12" s="13"/>
       <c r="T12" s="13"/>
       <c r="U12" s="13"/>
@@ -2002,21 +2005,21 @@
       <c r="B13" s="9">
         <v>4</v>
       </c>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="46"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="38"/>
       <c r="S13" s="13"/>
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
@@ -2032,21 +2035,21 @@
       <c r="B14" s="9">
         <v>5</v>
       </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="46"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="38"/>
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
@@ -2062,21 +2065,21 @@
       <c r="B15" s="9">
         <v>6</v>
       </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="46"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="38"/>
       <c r="S15" s="13"/>
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
@@ -2092,21 +2095,21 @@
       <c r="B16" s="9">
         <v>7</v>
       </c>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="46"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="38"/>
       <c r="S16" s="13"/>
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
@@ -2122,21 +2125,21 @@
       <c r="B17" s="9">
         <v>8</v>
       </c>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="46"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="38"/>
       <c r="S17" s="13"/>
       <c r="T17" s="13"/>
       <c r="U17" s="13"/>
@@ -2152,21 +2155,21 @@
       <c r="B18" s="9">
         <v>9</v>
       </c>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="46"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="38"/>
       <c r="S18" s="13"/>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
@@ -2182,21 +2185,21 @@
       <c r="B19" s="9">
         <v>10</v>
       </c>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="46"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="38"/>
       <c r="S19" s="13"/>
       <c r="T19" s="13"/>
       <c r="U19" s="13"/>
@@ -2212,21 +2215,21 @@
       <c r="B20" s="9">
         <v>11</v>
       </c>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="46"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="38"/>
       <c r="S20" s="13"/>
       <c r="T20" s="13"/>
       <c r="U20" s="13"/>
@@ -2242,21 +2245,21 @@
       <c r="B21" s="9">
         <v>12</v>
       </c>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="46"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="38"/>
       <c r="S21" s="13"/>
       <c r="T21" s="13"/>
       <c r="U21" s="13"/>
@@ -2272,21 +2275,21 @@
       <c r="B22" s="9">
         <v>13</v>
       </c>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="46"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="38"/>
       <c r="S22" s="13"/>
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
@@ -2302,21 +2305,21 @@
       <c r="B23" s="9">
         <v>14</v>
       </c>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="46"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="38"/>
       <c r="S23" s="13"/>
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
@@ -2332,21 +2335,21 @@
       <c r="B24" s="9">
         <v>15</v>
       </c>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="46"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="38"/>
       <c r="S24" s="13"/>
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
@@ -2362,21 +2365,21 @@
       <c r="B25" s="9">
         <v>16</v>
       </c>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="46"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="38"/>
       <c r="S25" s="13"/>
       <c r="T25" s="13"/>
       <c r="U25" s="13"/>
@@ -2392,21 +2395,21 @@
       <c r="B26" s="9">
         <v>17</v>
       </c>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="46"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="38"/>
       <c r="S26" s="13"/>
       <c r="T26" s="13"/>
       <c r="U26" s="13"/>
@@ -2422,382 +2425,384 @@
       <c r="B27" s="9">
         <v>18</v>
       </c>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="46"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="38"/>
     </row>
     <row r="28" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="9">
         <v>19</v>
       </c>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="46"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="38"/>
     </row>
     <row r="29" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="9">
         <v>20</v>
       </c>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="46"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="38"/>
     </row>
     <row r="30" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="9">
         <v>21</v>
       </c>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="46"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="38"/>
     </row>
     <row r="31" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="9">
         <v>22</v>
       </c>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="46"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="38"/>
     </row>
     <row r="32" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="9">
         <v>23</v>
       </c>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="46"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="38"/>
     </row>
     <row r="33" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="9">
         <v>24</v>
       </c>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="46"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="38"/>
     </row>
     <row r="34" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="9">
         <v>25</v>
       </c>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="45"/>
-      <c r="O34" s="45"/>
-      <c r="P34" s="45"/>
-      <c r="Q34" s="46"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="38"/>
     </row>
     <row r="35" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="9">
         <v>26</v>
       </c>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="45"/>
-      <c r="O35" s="45"/>
-      <c r="P35" s="45"/>
-      <c r="Q35" s="46"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="38"/>
     </row>
     <row r="36" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="9">
         <v>27</v>
       </c>
-      <c r="C36" s="85"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="85"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="46"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="38"/>
     </row>
     <row r="37" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="47" t="s">
+      <c r="B37" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="48"/>
-      <c r="Q37" s="49"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="46"/>
+      <c r="Q37" s="47"/>
     </row>
     <row r="38" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="50"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="51"/>
-      <c r="O38" s="51"/>
-      <c r="P38" s="51"/>
-      <c r="Q38" s="52"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="49"/>
+      <c r="Q38" s="50"/>
     </row>
     <row r="39" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="50"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="51"/>
-      <c r="O39" s="51"/>
-      <c r="P39" s="51"/>
-      <c r="Q39" s="52"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="50"/>
     </row>
     <row r="40" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="50"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="51"/>
-      <c r="N40" s="51"/>
-      <c r="O40" s="51"/>
-      <c r="P40" s="51"/>
-      <c r="Q40" s="52"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="49"/>
+      <c r="P40" s="49"/>
+      <c r="Q40" s="50"/>
     </row>
     <row r="41" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="53"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
-      <c r="N41" s="54"/>
-      <c r="O41" s="54"/>
-      <c r="P41" s="54"/>
-      <c r="Q41" s="55"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="52"/>
+      <c r="O41" s="52"/>
+      <c r="P41" s="52"/>
+      <c r="Q41" s="53"/>
     </row>
     <row r="42" spans="2:17" ht="5.65" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="43" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="56" t="s">
+      <c r="B43" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="57" t="s">
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="57"/>
-      <c r="L43" s="57" t="s">
+      <c r="K43" s="55"/>
+      <c r="L43" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="M43" s="57"/>
-      <c r="N43" s="57" t="s">
+      <c r="M43" s="55"/>
+      <c r="N43" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="O43" s="57"/>
-      <c r="P43" s="57" t="s">
+      <c r="O43" s="55"/>
+      <c r="P43" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="Q43" s="58"/>
+      <c r="Q43" s="56"/>
     </row>
     <row r="44" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="42"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="44" t="s">
+      <c r="C44" s="83"/>
+      <c r="D44" s="84" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="84"/>
+      <c r="F44" s="84"/>
+      <c r="G44" s="84"/>
+      <c r="H44" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="I44" s="44"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="31"/>
-      <c r="O44" s="31"/>
-      <c r="P44" s="32" t="s">
+      <c r="I44" s="85"/>
+      <c r="J44" s="72"/>
+      <c r="K44" s="72"/>
+      <c r="L44" s="72"/>
+      <c r="M44" s="72"/>
+      <c r="N44" s="72"/>
+      <c r="O44" s="72"/>
+      <c r="P44" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="Q44" s="33"/>
+      <c r="Q44" s="74"/>
     </row>
     <row r="45" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="34"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="38"/>
-      <c r="N45" s="38"/>
-      <c r="O45" s="38"/>
-      <c r="P45" s="39"/>
-      <c r="Q45" s="40"/>
+      <c r="B45" s="75"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="77"/>
+      <c r="H45" s="78"/>
+      <c r="I45" s="78"/>
+      <c r="J45" s="79"/>
+      <c r="K45" s="79"/>
+      <c r="L45" s="79"/>
+      <c r="M45" s="79"/>
+      <c r="N45" s="79"/>
+      <c r="O45" s="79"/>
+      <c r="P45" s="80"/>
+      <c r="Q45" s="81"/>
     </row>
     <row r="46" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="24"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="31"/>
-      <c r="O46" s="31"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="17"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="70"/>
+      <c r="I46" s="71"/>
+      <c r="J46" s="72"/>
+      <c r="K46" s="72"/>
+      <c r="L46" s="72"/>
+      <c r="M46" s="72"/>
+      <c r="N46" s="72"/>
+      <c r="O46" s="72"/>
+      <c r="P46" s="57"/>
+      <c r="Q46" s="58"/>
     </row>
     <row r="47" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="48" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2829,104 +2834,6 @@
     <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="122">
-    <mergeCell ref="B1:D4"/>
-    <mergeCell ref="E1:M1"/>
-    <mergeCell ref="E2:M2"/>
-    <mergeCell ref="E3:M3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:Q10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:Q11"/>
-    <mergeCell ref="B7:Q7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:Q9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:Q14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:Q15"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:Q12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:Q13"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:Q18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:Q19"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:Q16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:Q17"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:Q22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:Q23"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:Q20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:Q21"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:Q26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:Q27"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:Q24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:Q25"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:Q30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:Q31"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:Q28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:Q29"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:Q34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I35:Q35"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:Q32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:Q33"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:Q36"/>
-    <mergeCell ref="B37:Q41"/>
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P43:Q43"/>
     <mergeCell ref="P46:Q46"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="O3:R3"/>
@@ -2951,6 +2858,104 @@
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:Q36"/>
+    <mergeCell ref="B37:Q41"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:Q34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:Q35"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:Q32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:Q33"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:Q30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:Q31"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:Q28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:Q29"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:Q26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:Q27"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:Q24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:Q25"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:Q22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:Q23"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:Q20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:Q21"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:Q18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:Q19"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:Q16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:Q17"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:Q14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:Q15"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:Q12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:Q13"/>
+    <mergeCell ref="B1:D4"/>
+    <mergeCell ref="E1:M1"/>
+    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="E3:M3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:Q10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:Q11"/>
+    <mergeCell ref="B7:Q7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:Q9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="98" orientation="portrait" r:id="rId1"/>
@@ -2971,6 +2976,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010049A98165F7642E47B17A8718C6309C3C" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9df6a80b683f270dae4d8a9378e1d1ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0a527c08-909e-4034-a4b4-e3dc69cf1394" xmlns:ns3="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0c18106f391fc927c4fcfd7d01849ca" ns2:_="" ns3:_="">
     <xsd:import namespace="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
@@ -3167,12 +3178,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3342C9-0999-4E47-99DE-61F63C6EECE1}">
   <ds:schemaRefs>
@@ -3182,6 +3187,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795AD8BC-805A-47E5-B745-6CE87A160978}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
+    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845AA705-DFFE-46E6-825A-7AEA3224B1E5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3198,21 +3220,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795AD8BC-805A-47E5-B745-6CE87A160978}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
-    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV5.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV5.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">CONTRACT NO: PWD/HO/B130/2019 </t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Verifier</t>
+  </si>
+  <si>
+    <t>Endaya Construction Sdn Bhd</t>
   </si>
 </sst>
 </file>
@@ -830,6 +833,129 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -916,129 +1042,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1078,7 +1081,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5560062A-CEC6-4E1F-AAB8-BB76EE3F64C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5560062A-CEC6-4E1F-AAB8-BB76EE3F64C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1128,7 +1131,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{009A5697-667C-4D18-BFE3-FF9CCD889E10}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{009A5697-667C-4D18-BFE3-FF9CCD889E10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1207,7 +1210,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B292BE2E-1B46-45AD-887D-C02B025B0727}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B292BE2E-1B46-45AD-887D-C02B025B0727}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1634,8 +1637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AB74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:H36"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A36" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44:G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -1652,27 +1655,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="59"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="67" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
       <c r="N1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="19"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="60"/>
       <c r="S1" s="13"/>
       <c r="T1" s="13"/>
       <c r="U1" s="13"/>
@@ -1685,20 +1688,20 @@
       <c r="AB1" s="13"/>
     </row>
     <row r="2" spans="2:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="62"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="71"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="28"/>
       <c r="N2" s="3"/>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
@@ -1716,27 +1719,27 @@
       <c r="AB2" s="13"/>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="72" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="74"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
       <c r="N3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="21"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="62"/>
       <c r="S3" s="13"/>
       <c r="T3" s="13"/>
       <c r="U3" s="13"/>
@@ -1749,17 +1752,17 @@
       <c r="AB3" s="13"/>
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B4" s="65"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="12"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
       <c r="K4" s="4" t="s">
         <v>17</v>
       </c>
@@ -1770,10 +1773,10 @@
       <c r="N4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="23"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="64"/>
       <c r="S4" s="13"/>
       <c r="T4" s="13"/>
       <c r="U4" s="13"/>
@@ -1813,24 +1816,24 @@
       <c r="AB6" s="13"/>
     </row>
     <row r="7" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="79"/>
-      <c r="O7" s="79"/>
-      <c r="P7" s="79"/>
-      <c r="Q7" s="80"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="41"/>
       <c r="S7" s="13"/>
       <c r="T7" s="13"/>
       <c r="U7" s="13"/>
@@ -1843,28 +1846,28 @@
       <c r="AB7" s="13"/>
     </row>
     <row r="8" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83" t="s">
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="83"/>
-      <c r="P8" s="83"/>
-      <c r="Q8" s="83"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
       <c r="S8" s="13"/>
       <c r="T8" s="13"/>
       <c r="U8" s="13"/>
@@ -1877,26 +1880,26 @@
       <c r="AB8" s="13"/>
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B9" s="82"/>
-      <c r="C9" s="83" t="s">
+      <c r="B9" s="43"/>
+      <c r="C9" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83" t="s">
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="83"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
       <c r="S9" s="13"/>
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
@@ -1912,21 +1915,21 @@
       <c r="B10" s="9">
         <v>1</v>
       </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="77"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="35"/>
       <c r="S10" s="13"/>
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
@@ -1942,21 +1945,21 @@
       <c r="B11" s="9">
         <v>2</v>
       </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="46"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="38"/>
       <c r="S11" s="13"/>
       <c r="T11" s="13"/>
       <c r="U11" s="13"/>
@@ -1972,21 +1975,21 @@
       <c r="B12" s="9">
         <v>3</v>
       </c>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="46"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="38"/>
       <c r="S12" s="13"/>
       <c r="T12" s="13"/>
       <c r="U12" s="13"/>
@@ -2002,21 +2005,21 @@
       <c r="B13" s="9">
         <v>4</v>
       </c>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="46"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="38"/>
       <c r="S13" s="13"/>
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
@@ -2032,21 +2035,21 @@
       <c r="B14" s="9">
         <v>5</v>
       </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="46"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="38"/>
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
@@ -2062,21 +2065,21 @@
       <c r="B15" s="9">
         <v>6</v>
       </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="46"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="38"/>
       <c r="S15" s="13"/>
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
@@ -2092,21 +2095,21 @@
       <c r="B16" s="9">
         <v>7</v>
       </c>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="46"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="38"/>
       <c r="S16" s="13"/>
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
@@ -2122,21 +2125,21 @@
       <c r="B17" s="9">
         <v>8</v>
       </c>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="46"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="38"/>
       <c r="S17" s="13"/>
       <c r="T17" s="13"/>
       <c r="U17" s="13"/>
@@ -2152,21 +2155,21 @@
       <c r="B18" s="9">
         <v>9</v>
       </c>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="46"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="38"/>
       <c r="S18" s="13"/>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
@@ -2182,21 +2185,21 @@
       <c r="B19" s="9">
         <v>10</v>
       </c>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="46"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="38"/>
       <c r="S19" s="13"/>
       <c r="T19" s="13"/>
       <c r="U19" s="13"/>
@@ -2212,21 +2215,21 @@
       <c r="B20" s="9">
         <v>11</v>
       </c>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="46"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="38"/>
       <c r="S20" s="13"/>
       <c r="T20" s="13"/>
       <c r="U20" s="13"/>
@@ -2242,21 +2245,21 @@
       <c r="B21" s="9">
         <v>12</v>
       </c>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="46"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="38"/>
       <c r="S21" s="13"/>
       <c r="T21" s="13"/>
       <c r="U21" s="13"/>
@@ -2272,21 +2275,21 @@
       <c r="B22" s="9">
         <v>13</v>
       </c>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="46"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="38"/>
       <c r="S22" s="13"/>
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
@@ -2302,21 +2305,21 @@
       <c r="B23" s="9">
         <v>14</v>
       </c>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="46"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="38"/>
       <c r="S23" s="13"/>
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
@@ -2332,21 +2335,21 @@
       <c r="B24" s="9">
         <v>15</v>
       </c>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="46"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="38"/>
       <c r="S24" s="13"/>
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
@@ -2362,21 +2365,21 @@
       <c r="B25" s="9">
         <v>16</v>
       </c>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="46"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="38"/>
       <c r="S25" s="13"/>
       <c r="T25" s="13"/>
       <c r="U25" s="13"/>
@@ -2392,21 +2395,21 @@
       <c r="B26" s="9">
         <v>17</v>
       </c>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="46"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="38"/>
       <c r="S26" s="13"/>
       <c r="T26" s="13"/>
       <c r="U26" s="13"/>
@@ -2422,382 +2425,384 @@
       <c r="B27" s="9">
         <v>18</v>
       </c>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="46"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="38"/>
     </row>
     <row r="28" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="9">
         <v>19</v>
       </c>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="46"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="38"/>
     </row>
     <row r="29" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="9">
         <v>20</v>
       </c>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="46"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="38"/>
     </row>
     <row r="30" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="9">
         <v>21</v>
       </c>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="46"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="38"/>
     </row>
     <row r="31" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="9">
         <v>22</v>
       </c>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="46"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="38"/>
     </row>
     <row r="32" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="9">
         <v>23</v>
       </c>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="46"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="38"/>
     </row>
     <row r="33" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="9">
         <v>24</v>
       </c>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="46"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="38"/>
     </row>
     <row r="34" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="9">
         <v>25</v>
       </c>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="45"/>
-      <c r="O34" s="45"/>
-      <c r="P34" s="45"/>
-      <c r="Q34" s="46"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="38"/>
     </row>
     <row r="35" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="9">
         <v>26</v>
       </c>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="45"/>
-      <c r="O35" s="45"/>
-      <c r="P35" s="45"/>
-      <c r="Q35" s="46"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="38"/>
     </row>
     <row r="36" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="9">
         <v>27</v>
       </c>
-      <c r="C36" s="85"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="85"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="46"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="38"/>
     </row>
     <row r="37" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="47" t="s">
+      <c r="B37" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="48"/>
-      <c r="Q37" s="49"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="46"/>
+      <c r="Q37" s="47"/>
     </row>
     <row r="38" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="50"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="51"/>
-      <c r="O38" s="51"/>
-      <c r="P38" s="51"/>
-      <c r="Q38" s="52"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="49"/>
+      <c r="Q38" s="50"/>
     </row>
     <row r="39" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="50"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="51"/>
-      <c r="O39" s="51"/>
-      <c r="P39" s="51"/>
-      <c r="Q39" s="52"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="50"/>
     </row>
     <row r="40" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="50"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="51"/>
-      <c r="N40" s="51"/>
-      <c r="O40" s="51"/>
-      <c r="P40" s="51"/>
-      <c r="Q40" s="52"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="49"/>
+      <c r="P40" s="49"/>
+      <c r="Q40" s="50"/>
     </row>
     <row r="41" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="53"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
-      <c r="N41" s="54"/>
-      <c r="O41" s="54"/>
-      <c r="P41" s="54"/>
-      <c r="Q41" s="55"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="52"/>
+      <c r="O41" s="52"/>
+      <c r="P41" s="52"/>
+      <c r="Q41" s="53"/>
     </row>
     <row r="42" spans="2:17" ht="5.65" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="43" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="56" t="s">
+      <c r="B43" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="57" t="s">
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="57"/>
-      <c r="L43" s="57" t="s">
+      <c r="K43" s="55"/>
+      <c r="L43" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="M43" s="57"/>
-      <c r="N43" s="57" t="s">
+      <c r="M43" s="55"/>
+      <c r="N43" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="O43" s="57"/>
-      <c r="P43" s="57" t="s">
+      <c r="O43" s="55"/>
+      <c r="P43" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="Q43" s="58"/>
+      <c r="Q43" s="56"/>
     </row>
     <row r="44" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="42"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="44" t="s">
+      <c r="C44" s="83"/>
+      <c r="D44" s="84" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="84"/>
+      <c r="F44" s="84"/>
+      <c r="G44" s="84"/>
+      <c r="H44" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="I44" s="44"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="31"/>
-      <c r="O44" s="31"/>
-      <c r="P44" s="32" t="s">
+      <c r="I44" s="85"/>
+      <c r="J44" s="72"/>
+      <c r="K44" s="72"/>
+      <c r="L44" s="72"/>
+      <c r="M44" s="72"/>
+      <c r="N44" s="72"/>
+      <c r="O44" s="72"/>
+      <c r="P44" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="Q44" s="33"/>
+      <c r="Q44" s="74"/>
     </row>
     <row r="45" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="34"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="38"/>
-      <c r="N45" s="38"/>
-      <c r="O45" s="38"/>
-      <c r="P45" s="39"/>
-      <c r="Q45" s="40"/>
+      <c r="B45" s="75"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="77"/>
+      <c r="H45" s="78"/>
+      <c r="I45" s="78"/>
+      <c r="J45" s="79"/>
+      <c r="K45" s="79"/>
+      <c r="L45" s="79"/>
+      <c r="M45" s="79"/>
+      <c r="N45" s="79"/>
+      <c r="O45" s="79"/>
+      <c r="P45" s="80"/>
+      <c r="Q45" s="81"/>
     </row>
     <row r="46" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="24"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="31"/>
-      <c r="O46" s="31"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="17"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="70"/>
+      <c r="I46" s="71"/>
+      <c r="J46" s="72"/>
+      <c r="K46" s="72"/>
+      <c r="L46" s="72"/>
+      <c r="M46" s="72"/>
+      <c r="N46" s="72"/>
+      <c r="O46" s="72"/>
+      <c r="P46" s="57"/>
+      <c r="Q46" s="58"/>
     </row>
     <row r="47" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="48" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2829,104 +2834,6 @@
     <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="122">
-    <mergeCell ref="B1:D4"/>
-    <mergeCell ref="E1:M1"/>
-    <mergeCell ref="E2:M2"/>
-    <mergeCell ref="E3:M3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:Q10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:Q11"/>
-    <mergeCell ref="B7:Q7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:Q9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:Q14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:Q15"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:Q12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:Q13"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:Q18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:Q19"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:Q16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:Q17"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:Q22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:Q23"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:Q20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:Q21"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:Q26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:Q27"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:Q24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:Q25"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:Q30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:Q31"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:Q28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:Q29"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:Q34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I35:Q35"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:Q32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:Q33"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:Q36"/>
-    <mergeCell ref="B37:Q41"/>
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P43:Q43"/>
     <mergeCell ref="P46:Q46"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="O3:R3"/>
@@ -2951,6 +2858,104 @@
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:Q36"/>
+    <mergeCell ref="B37:Q41"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:Q34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:Q35"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:Q32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:Q33"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:Q30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:Q31"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:Q28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:Q29"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:Q26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:Q27"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:Q24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:Q25"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:Q22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:Q23"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:Q20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:Q21"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:Q18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:Q19"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:Q16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:Q17"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:Q14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:Q15"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:Q12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:Q13"/>
+    <mergeCell ref="B1:D4"/>
+    <mergeCell ref="E1:M1"/>
+    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="E3:M3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:Q10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:Q11"/>
+    <mergeCell ref="B7:Q7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:Q9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="98" orientation="portrait" r:id="rId1"/>
@@ -2971,6 +2976,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010049A98165F7642E47B17A8718C6309C3C" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9df6a80b683f270dae4d8a9378e1d1ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0a527c08-909e-4034-a4b4-e3dc69cf1394" xmlns:ns3="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0c18106f391fc927c4fcfd7d01849ca" ns2:_="" ns3:_="">
     <xsd:import namespace="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
@@ -3167,12 +3178,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3342C9-0999-4E47-99DE-61F63C6EECE1}">
   <ds:schemaRefs>
@@ -3182,6 +3187,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795AD8BC-805A-47E5-B745-6CE87A160978}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
+    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845AA705-DFFE-46E6-825A-7AEA3224B1E5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3198,21 +3220,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795AD8BC-805A-47E5-B745-6CE87A160978}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
-    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV5.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormV5.xlsx
@@ -69,9 +69,6 @@
     <t>DATE</t>
   </si>
   <si>
-    <t>OF</t>
-  </si>
-  <si>
     <t>Recorded by:</t>
   </si>
   <si>
@@ -119,12 +116,15 @@
   <si>
     <t>Endaya Construction Sdn Bhd</t>
   </si>
+  <si>
+    <t xml:space="preserve">  1      OF</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,13 +175,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
@@ -784,7 +777,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -800,13 +793,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -821,18 +811,144 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -863,13 +979,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -881,34 +997,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -917,131 +1024,17 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1081,7 +1074,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5560062A-CEC6-4E1F-AAB8-BB76EE3F64C8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5560062A-CEC6-4E1F-AAB8-BB76EE3F64C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1131,7 +1124,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{009A5697-667C-4D18-BFE3-FF9CCD889E10}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{009A5697-667C-4D18-BFE3-FF9CCD889E10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1210,7 +1203,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B292BE2E-1B46-45AD-887D-C02B025B0727}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B292BE2E-1B46-45AD-887D-C02B025B0727}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1637,8 +1630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AB74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A36" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44:G44"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -1655,975 +1648,977 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="24" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
       <c r="N1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
     </row>
     <row r="2" spans="2:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="26" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+    </row>
+    <row r="3" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B3" s="60"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-    </row>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="31"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="72"/>
       <c r="N3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="8" t="s">
+      <c r="B4" s="63"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="85">
+        <v>1</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+    </row>
+    <row r="5" spans="2:28" ht="4.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+    </row>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+    </row>
+    <row r="7" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="78"/>
+      <c r="Q7" s="79"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+    </row>
+    <row r="8" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B8" s="80" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="82"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+    </row>
+    <row r="9" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B9" s="81"/>
+      <c r="C9" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="4" t="s">
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+    </row>
+    <row r="10" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="76"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+    </row>
+    <row r="11" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="8">
+        <v>2</v>
+      </c>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="44"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+    </row>
+    <row r="12" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="8">
+        <v>3</v>
+      </c>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="44"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+    </row>
+    <row r="13" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="8">
+        <v>4</v>
+      </c>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="44"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+    </row>
+    <row r="14" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="8">
+        <v>5</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="44"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+    </row>
+    <row r="15" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="8">
+        <v>6</v>
+      </c>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="44"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+    </row>
+    <row r="16" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="8">
+        <v>7</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="44"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+    </row>
+    <row r="17" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="8">
+        <v>8</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="44"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+    </row>
+    <row r="18" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="8">
+        <v>9</v>
+      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="44"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+    </row>
+    <row r="19" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="8">
+        <v>10</v>
+      </c>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="44"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+    </row>
+    <row r="20" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="8">
+        <v>11</v>
+      </c>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="44"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+    </row>
+    <row r="21" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="8">
+        <v>12</v>
+      </c>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="44"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+    </row>
+    <row r="22" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="8">
+        <v>13</v>
+      </c>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="44"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+    </row>
+    <row r="23" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="8">
+        <v>14</v>
+      </c>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="44"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="12"/>
+    </row>
+    <row r="24" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="8">
+        <v>15</v>
+      </c>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="44"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12"/>
+    </row>
+    <row r="25" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="8">
+        <v>16</v>
+      </c>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="44"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+    </row>
+    <row r="26" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="8">
         <v>17</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="14"/>
-      <c r="N4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="64"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-    </row>
-    <row r="5" spans="2:28" ht="4.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-    </row>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="44"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+    </row>
+    <row r="27" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="8">
         <v>18</v>
       </c>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-    </row>
-    <row r="7" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="39" t="s">
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="44"/>
+    </row>
+    <row r="28" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="8">
         <v>19</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="41"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-    </row>
-    <row r="8" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B8" s="42" t="s">
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="44"/>
+    </row>
+    <row r="29" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="8">
         <v>20</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="44"/>
+    </row>
+    <row r="30" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="8">
         <v>21</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44" t="s">
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="44"/>
+    </row>
+    <row r="31" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="8">
         <v>22</v>
       </c>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-    </row>
-    <row r="9" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B9" s="43"/>
-      <c r="C9" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-    </row>
-    <row r="10" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="9">
-        <v>1</v>
-      </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="35"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
-    </row>
-    <row r="11" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="9">
-        <v>2</v>
-      </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="38"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
-    </row>
-    <row r="12" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="9">
-        <v>3</v>
-      </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="38"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-    </row>
-    <row r="13" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="9">
-        <v>4</v>
-      </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="38"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-    </row>
-    <row r="14" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="9">
-        <v>5</v>
-      </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="38"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-    </row>
-    <row r="15" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="9">
-        <v>6</v>
-      </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="38"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-    </row>
-    <row r="16" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="9">
-        <v>7</v>
-      </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="38"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-    </row>
-    <row r="17" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="9">
-        <v>8</v>
-      </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="38"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
-    </row>
-    <row r="18" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="9">
-        <v>9</v>
-      </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="38"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-    </row>
-    <row r="19" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="9">
-        <v>10</v>
-      </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="38"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="13"/>
-    </row>
-    <row r="20" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="9">
-        <v>11</v>
-      </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="38"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="13"/>
-      <c r="AB20" s="13"/>
-    </row>
-    <row r="21" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="9">
-        <v>12</v>
-      </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="38"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="13"/>
-      <c r="AB21" s="13"/>
-    </row>
-    <row r="22" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="9">
-        <v>13</v>
-      </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="38"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="13"/>
-      <c r="AB22" s="13"/>
-    </row>
-    <row r="23" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="9">
-        <v>14</v>
-      </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="38"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="13"/>
-      <c r="AB23" s="13"/>
-    </row>
-    <row r="24" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="9">
-        <v>15</v>
-      </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="38"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
-      <c r="X24" s="13"/>
-      <c r="Y24" s="13"/>
-      <c r="Z24" s="13"/>
-      <c r="AA24" s="13"/>
-      <c r="AB24" s="13"/>
-    </row>
-    <row r="25" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="9">
-        <v>16</v>
-      </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="38"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="13"/>
-      <c r="AA25" s="13"/>
-      <c r="AB25" s="13"/>
-    </row>
-    <row r="26" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="9">
-        <v>17</v>
-      </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="38"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="13"/>
-      <c r="Y26" s="13"/>
-      <c r="Z26" s="13"/>
-      <c r="AA26" s="13"/>
-      <c r="AB26" s="13"/>
-    </row>
-    <row r="27" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="9">
-        <v>18</v>
-      </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="38"/>
-    </row>
-    <row r="28" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="9">
-        <v>19</v>
-      </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="38"/>
-    </row>
-    <row r="29" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="9">
-        <v>20</v>
-      </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="38"/>
-    </row>
-    <row r="30" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="9">
-        <v>21</v>
-      </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="38"/>
-    </row>
-    <row r="31" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="9">
-        <v>22</v>
-      </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="38"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="44"/>
     </row>
     <row r="32" spans="2:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="9">
+      <c r="B32" s="8">
         <v>23</v>
       </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="38"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="44"/>
     </row>
     <row r="33" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="9">
+      <c r="B33" s="8">
         <v>24</v>
       </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="38"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="44"/>
     </row>
     <row r="34" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="9">
+      <c r="B34" s="8">
         <v>25</v>
       </c>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="38"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="44"/>
     </row>
     <row r="35" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="9">
+      <c r="B35" s="8">
         <v>26</v>
       </c>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="38"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="44"/>
     </row>
     <row r="36" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="9">
+      <c r="B36" s="8">
         <v>27</v>
       </c>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="38"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="44"/>
     </row>
     <row r="37" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C37" s="46"/>
       <c r="D37" s="46"/>
@@ -2743,66 +2738,66 @@
       <c r="Q43" s="56"/>
     </row>
     <row r="44" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="82" t="s">
+      <c r="B44" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="40"/>
+      <c r="D44" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="83"/>
-      <c r="D44" s="84" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44" s="84"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="84"/>
-      <c r="H44" s="85" t="s">
+      <c r="E44" s="83"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="I44" s="41"/>
+      <c r="J44" s="84"/>
+      <c r="K44" s="84"/>
+      <c r="L44" s="84"/>
+      <c r="M44" s="84"/>
+      <c r="N44" s="84"/>
+      <c r="O44" s="84"/>
+      <c r="P44" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I44" s="85"/>
-      <c r="J44" s="72"/>
-      <c r="K44" s="72"/>
-      <c r="L44" s="72"/>
-      <c r="M44" s="72"/>
-      <c r="N44" s="72"/>
-      <c r="O44" s="72"/>
-      <c r="P44" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q44" s="74"/>
+      <c r="Q44" s="31"/>
     </row>
     <row r="45" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="75"/>
-      <c r="C45" s="76"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="77"/>
-      <c r="F45" s="77"/>
-      <c r="G45" s="77"/>
-      <c r="H45" s="78"/>
-      <c r="I45" s="78"/>
-      <c r="J45" s="79"/>
-      <c r="K45" s="79"/>
-      <c r="L45" s="79"/>
-      <c r="M45" s="79"/>
-      <c r="N45" s="79"/>
-      <c r="O45" s="79"/>
-      <c r="P45" s="80"/>
-      <c r="Q45" s="81"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="37"/>
+      <c r="Q45" s="38"/>
     </row>
     <row r="46" spans="2:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="65"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="69"/>
-      <c r="H46" s="70"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="72"/>
-      <c r="K46" s="72"/>
-      <c r="L46" s="72"/>
-      <c r="M46" s="72"/>
-      <c r="N46" s="72"/>
-      <c r="O46" s="72"/>
-      <c r="P46" s="57"/>
-      <c r="Q46" s="58"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="15"/>
     </row>
     <row r="47" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="48" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2834,6 +2829,104 @@
     <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="122">
+    <mergeCell ref="B1:D4"/>
+    <mergeCell ref="E1:M1"/>
+    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="E3:M3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:Q10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:Q11"/>
+    <mergeCell ref="B7:Q7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:Q9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:Q14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:Q15"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:Q12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:Q13"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:Q18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:Q19"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:Q16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:Q17"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:Q22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:Q23"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:Q20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:Q21"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:Q26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:Q27"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:Q24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:Q25"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:Q30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:Q31"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:Q28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:Q29"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:Q34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:Q35"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:Q32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:Q33"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:Q36"/>
+    <mergeCell ref="B37:Q41"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P43:Q43"/>
     <mergeCell ref="P46:Q46"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="O3:R3"/>
@@ -2858,104 +2951,6 @@
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:Q36"/>
-    <mergeCell ref="B37:Q41"/>
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:Q34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I35:Q35"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:Q32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:Q33"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:Q30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:Q31"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:Q28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:Q29"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:Q26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:Q27"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:Q24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:Q25"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:Q22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:Q23"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:Q20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:Q21"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:Q18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:Q19"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:Q16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:Q17"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:Q14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:Q15"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:Q12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:Q13"/>
-    <mergeCell ref="B1:D4"/>
-    <mergeCell ref="E1:M1"/>
-    <mergeCell ref="E2:M2"/>
-    <mergeCell ref="E3:M3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:Q10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:Q11"/>
-    <mergeCell ref="B7:Q7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:Q9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="98" orientation="portrait" r:id="rId1"/>
@@ -2967,21 +2962,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010049A98165F7642E47B17A8718C6309C3C" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9df6a80b683f270dae4d8a9378e1d1ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0a527c08-909e-4034-a4b4-e3dc69cf1394" xmlns:ns3="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0c18106f391fc927c4fcfd7d01849ca" ns2:_="" ns3:_="">
     <xsd:import namespace="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
@@ -3178,10 +3158,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3342C9-0999-4E47-99DE-61F63C6EECE1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845AA705-DFFE-46E6-825A-7AEA3224B1E5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
+    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3204,20 +3210,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845AA705-DFFE-46E6-825A-7AEA3224B1E5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3342C9-0999-4E47-99DE-61F63C6EECE1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0a527c08-909e-4034-a4b4-e3dc69cf1394"/>
-    <ds:schemaRef ds:uri="ded6c19b-ee5b-4879-90c7-eff5a7dc5c81"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>